--- a/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
@@ -507,1107 +507,1107 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0002631165148196341</v>
+        <v>0.0002797828486659268</v>
       </c>
       <c r="B2">
-        <v>0.2944360788639233</v>
+        <v>0.3586538642963581</v>
       </c>
       <c r="C2">
-        <v>0.008508410227281257</v>
+        <v>0.007401632093840526</v>
       </c>
       <c r="D2">
-        <v>0.01303108550731298</v>
+        <v>0.01172077013473599</v>
       </c>
       <c r="E2">
-        <v>0.6591490899777924</v>
+        <v>0.5908044730422291</v>
       </c>
       <c r="F2">
-        <v>0.10579265330811</v>
+        <v>0.1273623382641392</v>
       </c>
       <c r="G2">
-        <v>1.27206214251932E-05</v>
+        <v>1.364755430236995E-05</v>
       </c>
       <c r="H2">
-        <v>2.717737131551203E-06</v>
+        <v>2.799985618425332E-06</v>
       </c>
       <c r="I2">
-        <v>0.003083191845485769</v>
+        <v>0.003074026232396264</v>
       </c>
       <c r="J2">
-        <v>0.1322966432043725</v>
+        <v>0.129216029506192</v>
       </c>
       <c r="K2">
-        <v>6.902111061475572E-05</v>
+        <v>0.0002848854187853391</v>
       </c>
       <c r="L2">
-        <v>-0.05865760479025524</v>
+        <v>-0.06039440408596179</v>
       </c>
       <c r="M2">
-        <v>5.869551385553769E-05</v>
+        <v>0.0001659736393535521</v>
       </c>
       <c r="N2">
-        <v>-4.10563535511467E-08</v>
+        <v>-3.754218462365244E-08</v>
       </c>
       <c r="O2">
-        <v>0.0001213371917550543</v>
+        <v>0.0001291585264732249</v>
       </c>
       <c r="P2">
-        <v>0.0001746451139920544</v>
+        <v>0.0002156929720003457</v>
       </c>
       <c r="Q2">
-        <v>0.0001926680099194614</v>
+        <v>0.0002410053810742971</v>
       </c>
       <c r="R2">
-        <v>0.00137466772953131</v>
+        <v>0.001020511434396131</v>
       </c>
       <c r="S2">
-        <v>4.084566578303931E-10</v>
+        <v>5.816241975063053E-10</v>
       </c>
       <c r="T2">
-        <v>3.93052878310995E-07</v>
+        <v>4.560838762114436E-07</v>
       </c>
       <c r="U2">
-        <v>0.0440648272619772</v>
+        <v>0.05177292390915922</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0005217443589112451</v>
+        <v>0.0005217443275300898</v>
       </c>
       <c r="B3">
-        <v>0.04458918006015379</v>
+        <v>0.04458917523625558</v>
       </c>
       <c r="C3">
-        <v>0.02514845875314165</v>
+        <v>0.02514845799977498</v>
       </c>
       <c r="D3">
-        <v>0.0306153922004262</v>
+        <v>0.0306153911515743</v>
       </c>
       <c r="E3">
-        <v>2.317247222266134</v>
+        <v>2.317247019162929</v>
       </c>
       <c r="F3">
-        <v>0.01122870973914093</v>
+        <v>0.01122870855902125</v>
       </c>
       <c r="G3">
-        <v>1.114180113738668E-05</v>
+        <v>1.114180009745653E-05</v>
       </c>
       <c r="H3">
-        <v>8.299748010343931E-05</v>
+        <v>8.299748004719524E-05</v>
       </c>
       <c r="I3">
-        <v>0.00470279472975929</v>
+        <v>0.004702794301355635</v>
       </c>
       <c r="J3">
-        <v>0.2222791590119065</v>
+        <v>0.2222791351432203</v>
       </c>
       <c r="K3">
-        <v>0.001052736170771915</v>
+        <v>0.001052736334235308</v>
       </c>
       <c r="L3">
-        <v>0.1476675260854848</v>
+        <v>0.1476675264331839</v>
       </c>
       <c r="M3">
-        <v>-5.378508883808804E-05</v>
+        <v>-5.378642288606472E-05</v>
       </c>
       <c r="N3">
-        <v>1.058667083067138E-09</v>
+        <v>1.058665818198341E-09</v>
       </c>
       <c r="O3">
-        <v>0.000196772350833557</v>
+        <v>0.0001967723417835494</v>
       </c>
       <c r="P3">
-        <v>0.0003871030398105129</v>
+        <v>0.0003871030265931541</v>
       </c>
       <c r="Q3">
-        <v>0.0003958674193337659</v>
+        <v>0.000395867405193608</v>
       </c>
       <c r="R3">
-        <v>0.0004538639856767283</v>
+        <v>0.0004538639736178146</v>
       </c>
       <c r="S3">
-        <v>1.650602847049167E-09</v>
+        <v>1.65060282450216E-09</v>
       </c>
       <c r="T3">
-        <v>2.326735825766809E-07</v>
+        <v>2.326735655172618E-07</v>
       </c>
       <c r="U3">
-        <v>0.002632041730587011</v>
+        <v>0.002632041000732924</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716259348051</v>
+        <v>0.00699271618392954</v>
       </c>
       <c r="B4">
-        <v>2.903410323362387</v>
+        <v>2.90341031008102</v>
       </c>
       <c r="C4">
-        <v>0.07038872154484406</v>
+        <v>0.07038871924069166</v>
       </c>
       <c r="D4">
-        <v>0.09440798244838323</v>
+        <v>0.0944079794175411</v>
       </c>
       <c r="E4">
-        <v>8.341454223334779</v>
+        <v>8.34145387057352</v>
       </c>
       <c r="F4">
-        <v>1.848787730677857</v>
+        <v>1.848787726563822</v>
       </c>
       <c r="G4">
-        <v>0.0007213161031607705</v>
+        <v>0.0007213160992348987</v>
       </c>
       <c r="H4">
-        <v>0.0001023750984820941</v>
+        <v>0.0001023750979671859</v>
       </c>
       <c r="I4">
-        <v>0.08131586836362953</v>
+        <v>0.08131586778283541</v>
       </c>
       <c r="J4">
-        <v>1.694323793988921</v>
+        <v>1.69432374770549</v>
       </c>
       <c r="K4">
-        <v>0.1197926434459532</v>
+        <v>0.1197926433711666</v>
       </c>
       <c r="L4">
-        <v>0.1250208503627242</v>
+        <v>0.1250208909564702</v>
       </c>
       <c r="M4">
-        <v>0.003473829226153105</v>
+        <v>0.003473828837991015</v>
       </c>
       <c r="N4">
-        <v>4.730718303762852E-07</v>
+        <v>4.730718273764162E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919311125928</v>
+        <v>0.003900919282164596</v>
       </c>
       <c r="P4">
-        <v>0.006715645344034446</v>
+        <v>0.006715645273810188</v>
       </c>
       <c r="Q4">
-        <v>0.007422234092581788</v>
+        <v>0.007422234009778035</v>
       </c>
       <c r="R4">
-        <v>0.0451990728337861</v>
+        <v>0.04519907277883937</v>
       </c>
       <c r="S4">
-        <v>1.231828982849988E-08</v>
+        <v>1.231829011639644E-08</v>
       </c>
       <c r="T4">
-        <v>5.909946440397978E-06</v>
+        <v>5.909946397210852E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457896422396</v>
+        <v>0.7120457881646729</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>1.045268350290749E-05</v>
+        <v>1.045268349907885E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009338764909387414</v>
+        <v>0.0009338764882866745</v>
       </c>
       <c r="C5">
-        <v>0.0003408795383657296</v>
+        <v>0.0003408795382563484</v>
       </c>
       <c r="D5">
-        <v>0.001489825328955825</v>
+        <v>0.001489825328831689</v>
       </c>
       <c r="E5">
-        <v>0.0593365436115308</v>
+        <v>0.0593365436304546</v>
       </c>
       <c r="F5">
-        <v>0.0002388097092937225</v>
+        <v>0.000238809708095001</v>
       </c>
       <c r="G5">
-        <v>2.244443810618636E-07</v>
+        <v>2.2444438214417E-07</v>
       </c>
       <c r="H5">
-        <v>2.94023055972211E-08</v>
+        <v>2.940230558358871E-08</v>
       </c>
       <c r="I5">
-        <v>8.878766872258745E-05</v>
+        <v>8.878766851042657E-05</v>
       </c>
       <c r="J5">
-        <v>0.00659769828931217</v>
+        <v>0.006597698291686547</v>
       </c>
       <c r="K5">
-        <v>-2.301735607687431E-05</v>
+        <v>-2.301735616514961E-05</v>
       </c>
       <c r="L5">
-        <v>4.804244788028912E-05</v>
+        <v>4.80424510731086E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002187085846135911</v>
+        <v>0.0002187085846189683</v>
       </c>
       <c r="N5">
-        <v>2.640842786558101E-09</v>
+        <v>2.640842785815755E-09</v>
       </c>
       <c r="O5">
-        <v>4.348836729909641E-06</v>
+        <v>4.348836729582777E-06</v>
       </c>
       <c r="P5">
-        <v>9.181136521192074E-06</v>
+        <v>9.181136504126601E-06</v>
       </c>
       <c r="Q5">
-        <v>9.38446415309929E-06</v>
+        <v>9.384464134013968E-06</v>
       </c>
       <c r="R5">
-        <v>-1.660040585432643E-06</v>
+        <v>-1.660040584415944E-06</v>
       </c>
       <c r="S5">
-        <v>7.689420610356443E-12</v>
+        <v>7.689420628846116E-12</v>
       </c>
       <c r="T5">
-        <v>5.40573682995689E-09</v>
+        <v>5.405736827112064E-09</v>
       </c>
       <c r="U5">
-        <v>0.0001319971316422587</v>
+        <v>0.0001319971310831119</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01738270259445359</v>
+        <v>0.0173827025829531</v>
       </c>
       <c r="B6">
-        <v>0.9034429196858434</v>
+        <v>0.9034429189840077</v>
       </c>
       <c r="C6">
-        <v>0.6378164086247837</v>
+        <v>0.6378164083258063</v>
       </c>
       <c r="D6">
-        <v>0.8601234649790894</v>
+        <v>0.86012346459264</v>
       </c>
       <c r="E6">
-        <v>141.2544907783585</v>
+        <v>141.2544907666617</v>
       </c>
       <c r="F6">
-        <v>0.2576648741339278</v>
+        <v>0.2576648738266425</v>
       </c>
       <c r="G6">
-        <v>0.001260926036112443</v>
+        <v>0.001260926036332069</v>
       </c>
       <c r="H6">
-        <v>3.362399748932618E-05</v>
+        <v>3.362399742423872E-05</v>
       </c>
       <c r="I6">
-        <v>0.1508039967828752</v>
+        <v>0.1508039971346109</v>
       </c>
       <c r="J6">
-        <v>15.69234268246364</v>
+        <v>15.69234267844423</v>
       </c>
       <c r="K6">
-        <v>0.05956484694817126</v>
+        <v>0.05956484689813305</v>
       </c>
       <c r="L6">
-        <v>0.1463151825180493</v>
+        <v>0.1463152292404379</v>
       </c>
       <c r="M6">
-        <v>-0.04907673153385683</v>
+        <v>-0.04907673156051746</v>
       </c>
       <c r="N6">
-        <v>6.646685958043E-07</v>
+        <v>6.646685956573643E-07</v>
       </c>
       <c r="O6">
-        <v>0.00577454060714358</v>
+        <v>0.005774540605208774</v>
       </c>
       <c r="P6">
-        <v>0.004776580398821107</v>
+        <v>0.004776580387474162</v>
       </c>
       <c r="Q6">
-        <v>0.004907980512912011</v>
+        <v>0.004907980500752537</v>
       </c>
       <c r="R6">
-        <v>0.006288120740856097</v>
+        <v>0.006288120741945967</v>
       </c>
       <c r="S6">
-        <v>1.113666171263923E-08</v>
+        <v>1.113666212117138E-08</v>
       </c>
       <c r="T6">
-        <v>8.560864366067021E-06</v>
+        <v>8.560864364444129E-06</v>
       </c>
       <c r="U6">
-        <v>0.05167452942297835</v>
+        <v>0.05167452927221255</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.005772319507619779</v>
+        <v>0.005772319478677816</v>
       </c>
       <c r="B7">
-        <v>2.224921685449431</v>
+        <v>2.224921678339705</v>
       </c>
       <c r="C7">
-        <v>0.06086610683577485</v>
+        <v>0.06086610580976265</v>
       </c>
       <c r="D7">
-        <v>0.08128839672249832</v>
+        <v>0.0812883953761316</v>
       </c>
       <c r="E7">
-        <v>7.538244101019507</v>
+        <v>7.53824400929427</v>
       </c>
       <c r="F7">
-        <v>1.300874185399504</v>
+        <v>1.300874183250051</v>
       </c>
       <c r="G7">
-        <v>0.0006950721277895013</v>
+        <v>0.0006950721252931491</v>
       </c>
       <c r="H7">
-        <v>0.0001565284557795056</v>
+        <v>0.0001565284555452828</v>
       </c>
       <c r="I7">
-        <v>0.06745111171823448</v>
+        <v>0.06745111190767715</v>
       </c>
       <c r="J7">
-        <v>1.659919584166356</v>
+        <v>1.659919566655523</v>
       </c>
       <c r="K7">
-        <v>0.08998677117718318</v>
+        <v>0.0899867710530797</v>
       </c>
       <c r="L7">
-        <v>0.6312150474698437</v>
+        <v>0.6312150324367632</v>
       </c>
       <c r="M7">
-        <v>0.003212259650385083</v>
+        <v>0.003212259509732595</v>
       </c>
       <c r="N7">
-        <v>6.293643593794209E-07</v>
+        <v>6.293643576722832E-07</v>
       </c>
       <c r="O7">
-        <v>0.003389902830249304</v>
+        <v>0.003389902816330198</v>
       </c>
       <c r="P7">
-        <v>0.005516683509708965</v>
+        <v>0.005516683468745913</v>
       </c>
       <c r="Q7">
-        <v>0.006030270446083504</v>
+        <v>0.006030270402828204</v>
       </c>
       <c r="R7">
-        <v>0.04233379404785347</v>
+        <v>0.04233379402254211</v>
       </c>
       <c r="S7">
-        <v>1.443339824326939E-08</v>
+        <v>1.443339807462261E-08</v>
       </c>
       <c r="T7">
-        <v>4.897914764812912E-06</v>
+        <v>4.897914746006663E-06</v>
       </c>
       <c r="U7">
-        <v>0.4957872298559191</v>
+        <v>0.4957872290939699</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.001022410067347905</v>
+        <v>0.001022410068798546</v>
       </c>
       <c r="B8">
-        <v>0.1671249426940719</v>
+        <v>0.1671249427400933</v>
       </c>
       <c r="C8">
-        <v>0.02542561162296167</v>
+        <v>0.02542561168140022</v>
       </c>
       <c r="D8">
-        <v>0.0352527208243236</v>
+        <v>0.03525272090567552</v>
       </c>
       <c r="E8">
-        <v>7.355646482878762</v>
+        <v>7.355646502552362</v>
       </c>
       <c r="F8">
-        <v>0.06922828455051533</v>
+        <v>0.06922828452475037</v>
       </c>
       <c r="G8">
-        <v>5.755860525605402E-05</v>
+        <v>5.755860548260059E-05</v>
       </c>
       <c r="H8">
-        <v>5.097098931319993E-06</v>
+        <v>5.097098933115707E-06</v>
       </c>
       <c r="I8">
-        <v>0.01405179596551843</v>
+        <v>0.01405179600849487</v>
       </c>
       <c r="J8">
-        <v>0.3317613431221256</v>
+        <v>0.3317613450637821</v>
       </c>
       <c r="K8">
-        <v>0.002150464188223824</v>
+        <v>0.002150464180837887</v>
       </c>
       <c r="L8">
-        <v>0.001500136776078999</v>
+        <v>0.001500135223476624</v>
       </c>
       <c r="M8">
-        <v>0.006047829504827866</v>
+        <v>0.006047829506984387</v>
       </c>
       <c r="N8">
-        <v>6.89200673884115E-08</v>
+        <v>6.892006738070163E-08</v>
       </c>
       <c r="O8">
-        <v>0.0004143913479968962</v>
+        <v>0.0004143913485568983</v>
       </c>
       <c r="P8">
-        <v>0.0003686160859235567</v>
+        <v>0.0003686160843285018</v>
       </c>
       <c r="Q8">
-        <v>0.0003943382357112413</v>
+        <v>0.0003943382340054113</v>
       </c>
       <c r="R8">
-        <v>0.00189287462704797</v>
+        <v>0.001892874628517919</v>
       </c>
       <c r="S8">
-        <v>8.929309336511781E-10</v>
+        <v>8.929309205106672E-10</v>
       </c>
       <c r="T8">
-        <v>5.423183345813815E-07</v>
+        <v>5.423183355624784E-07</v>
       </c>
       <c r="U8">
-        <v>0.02615081598832149</v>
+        <v>0.02615081596333904</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006959574406177997</v>
+        <v>0.006959573919925922</v>
       </c>
       <c r="B9">
-        <v>0.6155803836119083</v>
+        <v>0.6155803202349828</v>
       </c>
       <c r="C9">
-        <v>0.2690750915799295</v>
+        <v>0.2690750818020927</v>
       </c>
       <c r="D9">
-        <v>0.3180248838276736</v>
+        <v>0.3180248701726863</v>
       </c>
       <c r="E9">
-        <v>24.63805788325425</v>
+        <v>24.6380547834142</v>
       </c>
       <c r="F9">
-        <v>0.159362055599033</v>
+        <v>0.1593620410272614</v>
       </c>
       <c r="G9">
-        <v>-0.0002195002926211552</v>
+        <v>-0.000219500306704529</v>
       </c>
       <c r="H9">
-        <v>0.001596620080644073</v>
+        <v>0.001596620080185962</v>
       </c>
       <c r="I9">
-        <v>0.03259464162506789</v>
+        <v>0.03259463537380515</v>
       </c>
       <c r="J9">
-        <v>1.379421292837877</v>
+        <v>1.379420947296503</v>
       </c>
       <c r="K9">
-        <v>0.0147910356344472</v>
+        <v>0.01479103831119159</v>
       </c>
       <c r="L9">
-        <v>2.123278724693172</v>
+        <v>2.123278581836438</v>
       </c>
       <c r="M9">
-        <v>0.003915614617477763</v>
+        <v>0.003915596677455747</v>
       </c>
       <c r="N9">
-        <v>-2.205771351105381E-06</v>
+        <v>-2.20577136877101E-06</v>
       </c>
       <c r="O9">
-        <v>0.002887217630183337</v>
+        <v>0.002887217478949553</v>
       </c>
       <c r="P9">
-        <v>0.004960198421332027</v>
+        <v>0.004960198178156814</v>
       </c>
       <c r="Q9">
-        <v>0.005064426352956295</v>
+        <v>0.005064426100519053</v>
       </c>
       <c r="R9">
-        <v>0.006986423655598636</v>
+        <v>0.006986423553474772</v>
       </c>
       <c r="S9">
-        <v>2.303650128816137E-08</v>
+        <v>2.30364996539082E-08</v>
       </c>
       <c r="T9">
-        <v>2.826953749690442E-06</v>
+        <v>2.826953495965573E-06</v>
       </c>
       <c r="U9">
-        <v>0.02732442234147802</v>
+        <v>0.02732441292709631</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0003115072765051254</v>
+        <v>-0.0003115072769597658</v>
       </c>
       <c r="B10">
-        <v>-2.091157202879401</v>
+        <v>-2.091157204267517</v>
       </c>
       <c r="C10">
-        <v>-0.1048303069016566</v>
+        <v>-0.1048303069195618</v>
       </c>
       <c r="D10">
-        <v>-0.1494219354025579</v>
+        <v>-0.1494219354366175</v>
       </c>
       <c r="E10">
-        <v>-5.012678622713643</v>
+        <v>-5.012678661141836</v>
       </c>
       <c r="F10">
-        <v>-0.01911710972954148</v>
+        <v>-0.01911711049838691</v>
       </c>
       <c r="G10">
-        <v>-5.107723908240851E-05</v>
+        <v>-5.107723752260324E-05</v>
       </c>
       <c r="H10">
-        <v>-9.194433382051363E-06</v>
+        <v>-9.19443332546707E-06</v>
       </c>
       <c r="I10">
-        <v>-0.01848902457212504</v>
+        <v>-0.01848902476358691</v>
       </c>
       <c r="J10">
-        <v>-1.445445744224903</v>
+        <v>-1.44544574610156</v>
       </c>
       <c r="K10">
-        <v>0.001344091893389855</v>
+        <v>0.001344091802142519</v>
       </c>
       <c r="L10">
-        <v>-0.004184457165564912</v>
+        <v>-0.004184455275819478</v>
       </c>
       <c r="M10">
-        <v>-0.0002959822367807766</v>
+        <v>-0.0002959821854108844</v>
       </c>
       <c r="N10">
-        <v>-3.082511816731402E-07</v>
+        <v>-3.082511817225798E-07</v>
       </c>
       <c r="O10">
-        <v>-0.0001453288702680975</v>
+        <v>-0.000145328866393634</v>
       </c>
       <c r="P10">
-        <v>-0.0004398889211766549</v>
+        <v>-0.0004398889251747873</v>
       </c>
       <c r="Q10">
-        <v>-0.0004485041339900264</v>
+        <v>-0.0004485041400501608</v>
       </c>
       <c r="R10">
-        <v>-0.001904021539629271</v>
+        <v>-0.001904021530516057</v>
       </c>
       <c r="S10">
-        <v>-6.196312523659966E-09</v>
+        <v>-6.196312511064403E-09</v>
       </c>
       <c r="T10">
-        <v>-2.427839524364932E-06</v>
+        <v>-2.427839524262599E-06</v>
       </c>
       <c r="U10">
-        <v>-0.006439202706483501</v>
+        <v>-0.0064392031202614</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>-0.0003027668924617739</v>
+        <v>-0.0003027669015385121</v>
       </c>
       <c r="B11">
-        <v>-2.221943820219188</v>
+        <v>-2.221943815038778</v>
       </c>
       <c r="C11">
-        <v>-0.1850631264531856</v>
+        <v>-0.1850631259222897</v>
       </c>
       <c r="D11">
-        <v>-0.2545303529933766</v>
+        <v>-0.2545303523695521</v>
       </c>
       <c r="E11">
-        <v>-4.95247359810171</v>
+        <v>-4.952473623606734</v>
       </c>
       <c r="F11">
-        <v>-0.01877483700048456</v>
+        <v>-0.01877483466829495</v>
       </c>
       <c r="G11">
-        <v>-5.135087895065832E-05</v>
+        <v>-5.13508812520892E-05</v>
       </c>
       <c r="H11">
-        <v>-1.187452105907266E-05</v>
+        <v>-1.187452107314901E-05</v>
       </c>
       <c r="I11">
-        <v>-0.04147360747159275</v>
+        <v>-0.04147360659057331</v>
       </c>
       <c r="J11">
-        <v>-2.983676687793921</v>
+        <v>-2.983676692500754</v>
       </c>
       <c r="K11">
-        <v>0.00116291016172361</v>
+        <v>0.001162910285801896</v>
       </c>
       <c r="L11">
-        <v>-0.00425669697661341</v>
+        <v>-0.004256605059302664</v>
       </c>
       <c r="M11">
-        <v>0.000147389791558777</v>
+        <v>0.0001473899195911883</v>
       </c>
       <c r="N11">
-        <v>-4.537780295137514E-07</v>
+        <v>-4.537780294629463E-07</v>
       </c>
       <c r="O11">
-        <v>-0.000134415238170841</v>
+        <v>-0.0001344152441430524</v>
       </c>
       <c r="P11">
-        <v>-0.0004941234675008381</v>
+        <v>-0.0004941234600305379</v>
       </c>
       <c r="Q11">
-        <v>-0.00050212563506453</v>
+        <v>-0.0005021256227835315</v>
       </c>
       <c r="R11">
-        <v>-0.002269543781257785</v>
+        <v>-0.00226954377829973</v>
       </c>
       <c r="S11">
-        <v>-6.634298480428738E-09</v>
+        <v>-6.63429765172987E-09</v>
       </c>
       <c r="T11">
-        <v>-2.970549607644395E-06</v>
+        <v>-2.970549604722849E-06</v>
       </c>
       <c r="U11">
-        <v>-0.00676770125333682</v>
+        <v>-0.00676770013787578</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0003736670234396902</v>
+        <v>6.594770499585091E-05</v>
       </c>
       <c r="B12">
-        <v>0.03547839116036831</v>
+        <v>0.01915212104710587</v>
       </c>
       <c r="C12">
-        <v>0.01735694912074059</v>
+        <v>0.002370555546357602</v>
       </c>
       <c r="D12">
-        <v>0.02142888672024475</v>
+        <v>0.002997809063412047</v>
       </c>
       <c r="E12">
-        <v>1.087724675875541</v>
+        <v>0.2222254385832027</v>
       </c>
       <c r="F12">
-        <v>0.008745847181805752</v>
+        <v>0.005090922430838445</v>
       </c>
       <c r="G12">
-        <v>1.429857804362478E-05</v>
+        <v>7.252054304993121E-06</v>
       </c>
       <c r="H12">
-        <v>1.527606176504382E-06</v>
+        <v>6.385781892077899E-07</v>
       </c>
       <c r="I12">
-        <v>0.005329533745520478</v>
+        <v>0.0007446738895706913</v>
       </c>
       <c r="J12">
-        <v>0.1728108978543811</v>
+        <v>0.03061087012834336</v>
       </c>
       <c r="K12">
-        <v>8.878999274684823E-05</v>
+        <v>0.00292210762486094</v>
       </c>
       <c r="L12">
-        <v>0.1748642708523201</v>
+        <v>0.0150356901472809</v>
       </c>
       <c r="M12">
-        <v>0.0004609133801002214</v>
+        <v>6.21739115094234E-06</v>
       </c>
       <c r="N12">
-        <v>1.678931467119768E-07</v>
+        <v>2.195597673734798E-08</v>
       </c>
       <c r="O12">
-        <v>0.0001317687005667423</v>
+        <v>4.12314858557582E-05</v>
       </c>
       <c r="P12">
-        <v>0.0004362982526732448</v>
+        <v>8.090110608391665E-05</v>
       </c>
       <c r="Q12">
-        <v>0.000445878872271067</v>
+        <v>8.362450513850752E-05</v>
       </c>
       <c r="R12">
-        <v>0.0003881229380869593</v>
+        <v>0.0002613252190061327</v>
       </c>
       <c r="S12">
-        <v>1.822862674656249E-09</v>
+        <v>2.210768899746011E-10</v>
       </c>
       <c r="T12">
-        <v>1.742287658169638E-07</v>
+        <v>5.383831505567906E-08</v>
       </c>
       <c r="U12">
-        <v>0.002905565990107977</v>
+        <v>0.001606038000799707</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>7.224247791267987E-05</v>
+        <v>0.0003736670232649228</v>
       </c>
       <c r="B13">
-        <v>0.04340679321196735</v>
+        <v>0.03547839107236168</v>
       </c>
       <c r="C13">
-        <v>0.001952532037779261</v>
+        <v>0.01735694912740053</v>
       </c>
       <c r="D13">
-        <v>0.002502910743385345</v>
+        <v>0.02142888673014889</v>
       </c>
       <c r="E13">
-        <v>0.1964120777223143</v>
+        <v>1.087724678109787</v>
       </c>
       <c r="F13">
-        <v>0.01323766301343036</v>
+        <v>0.008745847142620361</v>
       </c>
       <c r="G13">
-        <v>7.60215119691444E-06</v>
+        <v>1.429857810685921E-05</v>
       </c>
       <c r="H13">
-        <v>6.696429396660032E-07</v>
+        <v>1.527606176405752E-06</v>
       </c>
       <c r="I13">
-        <v>0.0007412120552702428</v>
+        <v>0.005329533741063363</v>
       </c>
       <c r="J13">
-        <v>0.02944733969772738</v>
+        <v>0.172810898130994</v>
       </c>
       <c r="K13">
-        <v>0.003003638278534941</v>
+        <v>8.878998522786345E-05</v>
       </c>
       <c r="L13">
-        <v>0.01437969983275386</v>
+        <v>0.1748642708761582</v>
       </c>
       <c r="M13">
-        <v>4.673569797810905E-05</v>
+        <v>0.000460913378277969</v>
       </c>
       <c r="N13">
-        <v>2.328325719898265E-08</v>
+        <v>1.678931466750768E-07</v>
       </c>
       <c r="O13">
-        <v>4.418555654864832E-05</v>
+        <v>0.0001317687004893541</v>
       </c>
       <c r="P13">
-        <v>9.640463518839799E-05</v>
+        <v>0.0004362982515803597</v>
       </c>
       <c r="Q13">
-        <v>0.0001018812395019176</v>
+        <v>0.0004458788711034574</v>
       </c>
       <c r="R13">
-        <v>0.0001275625086519002</v>
+        <v>0.0003881229383973464</v>
       </c>
       <c r="S13">
-        <v>2.864811265368752E-10</v>
+        <v>1.822862674507104E-09</v>
       </c>
       <c r="T13">
-        <v>7.764474399578177E-08</v>
+        <v>1.742287657344091E-07</v>
       </c>
       <c r="U13">
-        <v>0.004517339857060118</v>
+        <v>0.002905565969145943</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.008446596267789987</v>
+        <v>0.00844659564509918</v>
       </c>
       <c r="B14">
-        <v>0.8152284411545332</v>
+        <v>0.8152283312767684</v>
       </c>
       <c r="C14">
-        <v>0.5096466837968365</v>
+        <v>0.5096466663346745</v>
       </c>
       <c r="D14">
-        <v>0.6197106858325503</v>
+        <v>0.6197106620595215</v>
       </c>
       <c r="E14">
-        <v>34.24860259076171</v>
+        <v>34.24859852050502</v>
       </c>
       <c r="F14">
-        <v>0.1986025918192548</v>
+        <v>0.1986025646786959</v>
       </c>
       <c r="G14">
-        <v>0.0004588961357237047</v>
+        <v>0.0004588961059078038</v>
       </c>
       <c r="H14">
-        <v>0.001235671647628049</v>
+        <v>0.001235671645883422</v>
       </c>
       <c r="I14">
-        <v>0.1042438516825786</v>
+        <v>0.104243842343689</v>
       </c>
       <c r="J14">
-        <v>4.278608045329446</v>
+        <v>4.278607551034469</v>
       </c>
       <c r="K14">
-        <v>0.0176296469807034</v>
+        <v>0.01762965002173741</v>
       </c>
       <c r="L14">
-        <v>2.822853463055612</v>
+        <v>2.822853417742448</v>
       </c>
       <c r="M14">
-        <v>0.002063308848347496</v>
+        <v>0.002063282370983983</v>
       </c>
       <c r="N14">
-        <v>1.929764456857863E-06</v>
+        <v>1.929764426391214E-06</v>
       </c>
       <c r="O14">
-        <v>0.003115942658676659</v>
+        <v>0.003115942459923259</v>
       </c>
       <c r="P14">
-        <v>0.007495161972649443</v>
+        <v>0.007495161673047246</v>
       </c>
       <c r="Q14">
-        <v>0.007669981435259829</v>
+        <v>0.007669981114070321</v>
       </c>
       <c r="R14">
-        <v>0.008047584215005066</v>
+        <v>0.008047583864236155</v>
       </c>
       <c r="S14">
-        <v>3.121155909606057E-08</v>
+        <v>3.121155813164239E-08</v>
       </c>
       <c r="T14">
-        <v>4.062327994053835E-06</v>
+        <v>4.062327622556343E-06</v>
       </c>
       <c r="U14">
-        <v>0.05658619127492311</v>
+        <v>0.05658617595437551</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0003494982775911402</v>
+        <v>0.0003494982769725432</v>
       </c>
       <c r="B15">
-        <v>0.01855843282131866</v>
+        <v>0.01855843273234735</v>
       </c>
       <c r="C15">
-        <v>0.01098912015862954</v>
+        <v>0.01098912015162067</v>
       </c>
       <c r="D15">
-        <v>0.01524433021926158</v>
+        <v>0.0152443302101365</v>
       </c>
       <c r="E15">
-        <v>3.264321953778074</v>
+        <v>3.264321952544929</v>
       </c>
       <c r="F15">
-        <v>0.004552448413926323</v>
+        <v>0.004552448384717302</v>
       </c>
       <c r="G15">
-        <v>1.910487327731369E-05</v>
+        <v>1.910487327829949E-05</v>
       </c>
       <c r="H15">
-        <v>6.95037766288739E-07</v>
+        <v>6.950377643947369E-07</v>
       </c>
       <c r="I15">
-        <v>0.005047138260030491</v>
+        <v>0.005047138254191204</v>
       </c>
       <c r="J15">
-        <v>0.1364140600597946</v>
+        <v>0.1364140599415152</v>
       </c>
       <c r="K15">
-        <v>0.0001865478391729833</v>
+        <v>0.0001865478364127617</v>
       </c>
       <c r="L15">
-        <v>0.0008428021816049274</v>
+        <v>0.0008428024710126215</v>
       </c>
       <c r="M15">
-        <v>0.002545299619870873</v>
+        <v>0.002545299619575384</v>
       </c>
       <c r="N15">
-        <v>5.765542956968584E-09</v>
+        <v>5.765542920008924E-09</v>
       </c>
       <c r="O15">
-        <v>0.0001336462472364643</v>
+        <v>0.0001336462469921406</v>
       </c>
       <c r="P15">
-        <v>6.607934872802313E-05</v>
+        <v>6.607934797160176E-05</v>
       </c>
       <c r="Q15">
-        <v>6.891290063753274E-05</v>
+        <v>6.891289983806622E-05</v>
       </c>
       <c r="R15">
-        <v>-1.265926844584432E-05</v>
+        <v>-1.265926855105754E-05</v>
       </c>
       <c r="S15">
-        <v>2.017326785065965E-10</v>
+        <v>2.017326805728787E-10</v>
       </c>
       <c r="T15">
-        <v>1.490714930232164E-07</v>
+        <v>1.490714927398E-07</v>
       </c>
       <c r="U15">
-        <v>0.001563766602963249</v>
+        <v>0.001563766591130579</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>3.708647395465542E-05</v>
+        <v>3.708647408185761E-05</v>
       </c>
       <c r="B16">
-        <v>0.003338416884331139</v>
+        <v>0.003338416584266691</v>
       </c>
       <c r="C16">
-        <v>0.00249928013975342</v>
+        <v>0.002499280145722626</v>
       </c>
       <c r="D16">
-        <v>0.003047335021030544</v>
+        <v>0.003047335028869901</v>
       </c>
       <c r="E16">
-        <v>0.1585703896624757</v>
+        <v>0.1585703924066002</v>
       </c>
       <c r="F16">
-        <v>0.0007670950867522556</v>
+        <v>0.0007670949881754312</v>
       </c>
       <c r="G16">
-        <v>1.458626103509843E-06</v>
+        <v>1.458626211946174E-06</v>
       </c>
       <c r="H16">
-        <v>1.286843286006827E-07</v>
+        <v>1.286843307254647E-07</v>
       </c>
       <c r="I16">
-        <v>0.0005170129751330552</v>
+        <v>0.0005170129623434573</v>
       </c>
       <c r="J16">
-        <v>0.019721507272056</v>
+        <v>0.01972150726323513</v>
       </c>
       <c r="K16">
-        <v>1.608535165557934E-05</v>
+        <v>1.608536582540563E-05</v>
       </c>
       <c r="L16">
-        <v>0.0131515968429548</v>
+        <v>0.01315159284653725</v>
       </c>
       <c r="M16">
-        <v>2.295113186497895E-06</v>
+        <v>2.294986809444041E-06</v>
       </c>
       <c r="N16">
-        <v>1.286921462491251E-08</v>
+        <v>1.286921458194122E-08</v>
       </c>
       <c r="O16">
-        <v>1.293174690281223E-05</v>
+        <v>1.29317470710072E-05</v>
       </c>
       <c r="P16">
-        <v>3.492260994132823E-05</v>
+        <v>3.492260898640712E-05</v>
       </c>
       <c r="Q16">
-        <v>3.572138005011489E-05</v>
+        <v>3.572137894878646E-05</v>
       </c>
       <c r="R16">
-        <v>3.101371694515751E-05</v>
+        <v>3.101371714118827E-05</v>
       </c>
       <c r="S16">
-        <v>1.43270777987171E-10</v>
+        <v>1.432707416654345E-10</v>
       </c>
       <c r="T16">
-        <v>1.754646640617046E-08</v>
+        <v>1.754646618846381E-08</v>
       </c>
       <c r="U16">
-        <v>0.0002378860341183502</v>
+        <v>0.0002378859566634104</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.0002400585000078207</v>
+        <v>0.000240058500848337</v>
       </c>
       <c r="B17">
-        <v>0.1932148929664198</v>
+        <v>0.1932148930342083</v>
       </c>
       <c r="C17">
-        <v>0.005356596778677523</v>
+        <v>0.005356596835667078</v>
       </c>
       <c r="D17">
-        <v>0.009062752210902952</v>
+        <v>0.009062752289540761</v>
       </c>
       <c r="E17">
-        <v>3.722526460562047</v>
+        <v>3.722526475245753</v>
       </c>
       <c r="F17">
-        <v>0.06151576165795154</v>
+        <v>0.06151576165540422</v>
       </c>
       <c r="G17">
-        <v>1.936117949567683E-05</v>
+        <v>1.93611796429329E-05</v>
       </c>
       <c r="H17">
-        <v>5.244946156745457E-06</v>
+        <v>5.24494616424086E-06</v>
       </c>
       <c r="I17">
-        <v>0.002569847167388613</v>
+        <v>0.00256984719999084</v>
       </c>
       <c r="J17">
-        <v>0.1633231671788104</v>
+        <v>0.1633231687806768</v>
       </c>
       <c r="K17">
-        <v>0.0008394809423646038</v>
+        <v>0.0008394809350403583</v>
       </c>
       <c r="L17">
-        <v>0.00799781752344385</v>
+        <v>0.007997813265503072</v>
       </c>
       <c r="M17">
-        <v>0.0008360682922522885</v>
+        <v>0.0008360682901379233</v>
       </c>
       <c r="N17">
-        <v>8.612594958609374E-08</v>
+        <v>8.612594951731066E-08</v>
       </c>
       <c r="O17">
-        <v>0.0001479688956504115</v>
+        <v>0.0001479688956728715</v>
       </c>
       <c r="P17">
-        <v>0.0003069426477986225</v>
+        <v>0.0003069426455537174</v>
       </c>
       <c r="Q17">
-        <v>0.0003484561825868175</v>
+        <v>0.0003484561804037245</v>
       </c>
       <c r="R17">
-        <v>0.0002864910380654115</v>
+        <v>0.000286491039343999</v>
       </c>
       <c r="S17">
-        <v>7.680304503353898E-10</v>
+        <v>7.680304129392236E-10</v>
       </c>
       <c r="T17">
-        <v>3.190607210533895E-07</v>
+        <v>3.190607216038002E-07</v>
       </c>
       <c r="U17">
-        <v>0.0259112097650037</v>
+        <v>0.02591120975153574</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.003211433476155772</v>
+        <v>0.003211433261187718</v>
       </c>
       <c r="B18">
-        <v>1.192351092981632</v>
+        <v>1.192351082061822</v>
       </c>
       <c r="C18">
-        <v>0.04087487780379813</v>
+        <v>0.04087487259226548</v>
       </c>
       <c r="D18">
-        <v>0.05159470766605866</v>
+        <v>0.05159470060995446</v>
       </c>
       <c r="E18">
-        <v>7.351985267368964</v>
+        <v>7.351984098201516</v>
       </c>
       <c r="F18">
-        <v>0.2589782488534225</v>
+        <v>0.2589782477432627</v>
       </c>
       <c r="G18">
-        <v>0.0005037090700941937</v>
+        <v>0.0005037090528337909</v>
       </c>
       <c r="H18">
-        <v>-0.002462599940982966</v>
+        <v>-0.002462599941780429</v>
       </c>
       <c r="I18">
-        <v>0.02425253077295198</v>
+        <v>0.02425252992260903</v>
       </c>
       <c r="J18">
-        <v>2.397394162825238</v>
+        <v>2.397394039135905</v>
       </c>
       <c r="K18">
-        <v>0.05817103577913056</v>
+        <v>0.05817103582373146</v>
       </c>
       <c r="L18">
-        <v>2.002549872907889</v>
+        <v>2.002549938657059</v>
       </c>
       <c r="M18">
-        <v>0.00134225121513333</v>
+        <v>0.001342251123241225</v>
       </c>
       <c r="N18">
-        <v>3.000385389980498E-07</v>
+        <v>3.000385327047724E-07</v>
       </c>
       <c r="O18">
-        <v>0.002814346075464542</v>
+        <v>0.002814345986595491</v>
       </c>
       <c r="P18">
-        <v>0.004199702925273503</v>
+        <v>0.004199702848534534</v>
       </c>
       <c r="Q18">
-        <v>0.004308237794360677</v>
+        <v>0.00430823772256643</v>
       </c>
       <c r="R18">
-        <v>0.06643524736444273</v>
+        <v>0.06643524726425409</v>
       </c>
       <c r="S18">
-        <v>2.278455629663442E-08</v>
+        <v>2.27845567656152E-08</v>
       </c>
       <c r="T18">
-        <v>3.655687434040661E-06</v>
+        <v>3.655687336775221E-06</v>
       </c>
       <c r="U18">
-        <v>0.08608849930004429</v>
+        <v>0.08608849990822459</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
@@ -507,1107 +507,1107 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0002797828486659268</v>
+        <v>0.0002648861834363426</v>
       </c>
       <c r="B2">
-        <v>0.3586538642963581</v>
+        <v>0.3694883583482985</v>
       </c>
       <c r="C2">
-        <v>0.007401632093840526</v>
+        <v>0.006938412938270854</v>
       </c>
       <c r="D2">
-        <v>0.01172077013473599</v>
+        <v>0.01116737972325737</v>
       </c>
       <c r="E2">
-        <v>0.5908044730422291</v>
+        <v>0.5618050353420507</v>
       </c>
       <c r="F2">
-        <v>0.1273623382641392</v>
+        <v>0.1312729432758574</v>
       </c>
       <c r="G2">
-        <v>1.364755430236995E-05</v>
+        <v>1.351952920891994E-05</v>
       </c>
       <c r="H2">
-        <v>2.799985618425332E-06</v>
+        <v>2.780557336355978E-06</v>
       </c>
       <c r="I2">
-        <v>0.003074026232396264</v>
+        <v>0.002931471442567688</v>
       </c>
       <c r="J2">
-        <v>0.129216029506192</v>
+        <v>0.1232294400651579</v>
       </c>
       <c r="K2">
-        <v>0.0002848854187853391</v>
+        <v>0.0003073593329319574</v>
       </c>
       <c r="L2">
-        <v>-0.06039440408596179</v>
+        <v>-0.06952443498365869</v>
       </c>
       <c r="M2">
-        <v>0.0001659736393535521</v>
+        <v>0.000162926622921204</v>
       </c>
       <c r="N2">
-        <v>-3.754218462365244E-08</v>
+        <v>-4.08700156577727E-08</v>
       </c>
       <c r="O2">
-        <v>0.0001291585264732249</v>
+        <v>0.0001248656798915637</v>
       </c>
       <c r="P2">
-        <v>0.0002156929720003457</v>
+        <v>0.0002055701007998883</v>
       </c>
       <c r="Q2">
-        <v>0.0002410053810742971</v>
+        <v>0.0002318638652644136</v>
       </c>
       <c r="R2">
-        <v>0.001020511434396131</v>
+        <v>0.001390022815900228</v>
       </c>
       <c r="S2">
-        <v>5.816241975063053E-10</v>
+        <v>5.258821224646742E-10</v>
       </c>
       <c r="T2">
-        <v>4.560838762114436E-07</v>
+        <v>4.624106160832593E-07</v>
       </c>
       <c r="U2">
-        <v>0.05177292390915922</v>
+        <v>0.05315460492995297</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0005217443275300898</v>
+        <v>0.0005217443763073978</v>
       </c>
       <c r="B3">
-        <v>0.04458917523625558</v>
+        <v>0.04458917999026743</v>
       </c>
       <c r="C3">
-        <v>0.02514845799977498</v>
+        <v>0.02514845929174458</v>
       </c>
       <c r="D3">
-        <v>0.0306153911515743</v>
+        <v>0.03061539291569893</v>
       </c>
       <c r="E3">
-        <v>2.317247019162929</v>
+        <v>2.31724735562381</v>
       </c>
       <c r="F3">
-        <v>0.01122870855902125</v>
+        <v>0.01122870973363907</v>
       </c>
       <c r="G3">
-        <v>1.114180009745653E-05</v>
+        <v>1.114180250967016E-05</v>
       </c>
       <c r="H3">
-        <v>8.299748004719524E-05</v>
+        <v>8.299748018844644E-05</v>
       </c>
       <c r="I3">
-        <v>0.004702794301355635</v>
+        <v>0.004702795005532369</v>
       </c>
       <c r="J3">
-        <v>0.2222791351432203</v>
+        <v>0.2222791694634381</v>
       </c>
       <c r="K3">
-        <v>0.001052736334235308</v>
+        <v>0.001052736414046016</v>
       </c>
       <c r="L3">
-        <v>0.1476675264331839</v>
+        <v>0.1476675264784855</v>
       </c>
       <c r="M3">
-        <v>-5.378642288606472E-05</v>
+        <v>-5.378647552724244E-05</v>
       </c>
       <c r="N3">
-        <v>1.058665818198341E-09</v>
+        <v>1.058667598847535E-09</v>
       </c>
       <c r="O3">
-        <v>0.0001967723417835494</v>
+        <v>0.0001967723577822369</v>
       </c>
       <c r="P3">
-        <v>0.0003871030265931541</v>
+        <v>0.000387103045693929</v>
       </c>
       <c r="Q3">
-        <v>0.000395867405193608</v>
+        <v>0.0003958674254878675</v>
       </c>
       <c r="R3">
-        <v>0.0004538639736178146</v>
+        <v>0.0004538639937675486</v>
       </c>
       <c r="S3">
-        <v>1.65060282450216E-09</v>
+        <v>1.650602857713619E-09</v>
       </c>
       <c r="T3">
-        <v>2.326735655172618E-07</v>
+        <v>2.326735901995271E-07</v>
       </c>
       <c r="U3">
-        <v>0.002632041000732924</v>
+        <v>0.002632041315251829</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.00699271618392954</v>
+        <v>0.006992716126484062</v>
       </c>
       <c r="B4">
-        <v>2.90341031008102</v>
+        <v>2.903410306228261</v>
       </c>
       <c r="C4">
-        <v>0.07038871924069166</v>
+        <v>0.07038871833563133</v>
       </c>
       <c r="D4">
-        <v>0.0944079794175411</v>
+        <v>0.09440797806140114</v>
       </c>
       <c r="E4">
-        <v>8.34145387057352</v>
+        <v>8.341453514822499</v>
       </c>
       <c r="F4">
-        <v>1.848787726563822</v>
+        <v>1.848787726014153</v>
       </c>
       <c r="G4">
-        <v>0.0007213160992348987</v>
+        <v>0.0007213160934482902</v>
       </c>
       <c r="H4">
-        <v>0.0001023750979671859</v>
+        <v>0.0001023750977304156</v>
       </c>
       <c r="I4">
-        <v>0.08131586778283541</v>
+        <v>0.08131586774565855</v>
       </c>
       <c r="J4">
-        <v>1.69432374770549</v>
+        <v>1.694323710604279</v>
       </c>
       <c r="K4">
-        <v>0.1197926433711666</v>
+        <v>0.1197926433965415</v>
       </c>
       <c r="L4">
-        <v>0.1250208909564702</v>
+        <v>0.1250208553312027</v>
       </c>
       <c r="M4">
-        <v>0.003473828837991015</v>
+        <v>0.003473828979133052</v>
       </c>
       <c r="N4">
-        <v>4.730718273764162E-07</v>
+        <v>4.730718246104467E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919282164596</v>
+        <v>0.00390091925320613</v>
       </c>
       <c r="P4">
-        <v>0.006715645273810188</v>
+        <v>0.006715645244612525</v>
       </c>
       <c r="Q4">
-        <v>0.007422234009778035</v>
+        <v>0.00742223398086168</v>
       </c>
       <c r="R4">
-        <v>0.04519907277883937</v>
+        <v>0.045199072746964</v>
       </c>
       <c r="S4">
-        <v>1.231829011639644E-08</v>
+        <v>1.231828976476699E-08</v>
       </c>
       <c r="T4">
-        <v>5.909946397210852E-06</v>
+        <v>5.909946366762085E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457881646729</v>
+        <v>0.7120457883269297</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>1.045268349907885E-05</v>
+        <v>1.045268349656474E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009338764882866745</v>
+        <v>0.0009338764912957512</v>
       </c>
       <c r="C5">
-        <v>0.0003408795382563484</v>
+        <v>0.0003408795383156719</v>
       </c>
       <c r="D5">
-        <v>0.001489825328831689</v>
+        <v>0.001489825328862234</v>
       </c>
       <c r="E5">
-        <v>0.0593365436304546</v>
+        <v>0.05933654356898306</v>
       </c>
       <c r="F5">
-        <v>0.000238809708095001</v>
+        <v>0.0002388097094031956</v>
       </c>
       <c r="G5">
-        <v>2.2444438214417E-07</v>
+        <v>2.24444380846596E-07</v>
       </c>
       <c r="H5">
-        <v>2.940230558358871E-08</v>
+        <v>2.940230558942118E-08</v>
       </c>
       <c r="I5">
-        <v>8.878766851042657E-05</v>
+        <v>8.878766898386977E-05</v>
       </c>
       <c r="J5">
-        <v>0.006597698291686547</v>
+        <v>0.006597698284956393</v>
       </c>
       <c r="K5">
-        <v>-2.301735616514961E-05</v>
+        <v>-2.301735611803668E-05</v>
       </c>
       <c r="L5">
-        <v>4.80424510731086E-05</v>
+        <v>4.804244612547479E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002187085846189683</v>
+        <v>0.0002187085847326044</v>
       </c>
       <c r="N5">
-        <v>2.640842785815755E-09</v>
+        <v>2.640842786240283E-09</v>
       </c>
       <c r="O5">
-        <v>4.348836729582777E-06</v>
+        <v>4.348836728729541E-06</v>
       </c>
       <c r="P5">
-        <v>9.181136504126601E-06</v>
+        <v>9.181136520109805E-06</v>
       </c>
       <c r="Q5">
-        <v>9.384464134013968E-06</v>
+        <v>9.38446415306227E-06</v>
       </c>
       <c r="R5">
-        <v>-1.660040584415944E-06</v>
+        <v>-1.660040583214114E-06</v>
       </c>
       <c r="S5">
-        <v>7.689420628846116E-12</v>
+        <v>7.689420593755497E-12</v>
       </c>
       <c r="T5">
-        <v>5.405736827112064E-09</v>
+        <v>5.405736829426336E-09</v>
       </c>
       <c r="U5">
-        <v>0.0001319971310831119</v>
+        <v>0.0001319971317132933</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.0173827025829531</v>
+        <v>0.01738270258780469</v>
       </c>
       <c r="B6">
-        <v>0.9034429189840077</v>
+        <v>0.903442921193654</v>
       </c>
       <c r="C6">
-        <v>0.6378164083258063</v>
+        <v>0.6378164088935513</v>
       </c>
       <c r="D6">
-        <v>0.86012346459264</v>
+        <v>0.8601234653378073</v>
       </c>
       <c r="E6">
-        <v>141.2544907666617</v>
+        <v>141.2544908087713</v>
       </c>
       <c r="F6">
-        <v>0.2576648738266425</v>
+        <v>0.2576648745706042</v>
       </c>
       <c r="G6">
-        <v>0.001260926036332069</v>
+        <v>0.001260926036785838</v>
       </c>
       <c r="H6">
-        <v>3.362399742423872E-05</v>
+        <v>3.362399745929378E-05</v>
       </c>
       <c r="I6">
-        <v>0.1508039971346109</v>
+        <v>0.1508039976231396</v>
       </c>
       <c r="J6">
-        <v>15.69234267844423</v>
+        <v>15.69234268474636</v>
       </c>
       <c r="K6">
-        <v>0.05956484689813305</v>
+        <v>0.05956484689305617</v>
       </c>
       <c r="L6">
-        <v>0.1463152292404379</v>
+        <v>0.146315180471122</v>
       </c>
       <c r="M6">
-        <v>-0.04907673156051746</v>
+        <v>-0.04907673146117784</v>
       </c>
       <c r="N6">
-        <v>6.646685956573643E-07</v>
+        <v>6.646685956051646E-07</v>
       </c>
       <c r="O6">
-        <v>0.005774540605208774</v>
+        <v>0.005774540605318444</v>
       </c>
       <c r="P6">
-        <v>0.004776580387474162</v>
+        <v>0.004776580384683438</v>
       </c>
       <c r="Q6">
-        <v>0.004907980500752537</v>
+        <v>0.004907980497795512</v>
       </c>
       <c r="R6">
-        <v>0.006288120741945967</v>
+        <v>0.006288120753949239</v>
       </c>
       <c r="S6">
-        <v>1.113666212117138E-08</v>
+        <v>1.1136661696354E-08</v>
       </c>
       <c r="T6">
-        <v>8.560864364444129E-06</v>
+        <v>8.56086436964451E-06</v>
       </c>
       <c r="U6">
-        <v>0.05167452927221255</v>
+        <v>0.05167452954126927</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.005772319478677816</v>
+        <v>0.005772319426993328</v>
       </c>
       <c r="B7">
-        <v>2.224921678339705</v>
+        <v>2.224921670782304</v>
       </c>
       <c r="C7">
-        <v>0.06086610580976265</v>
+        <v>0.06086610446441211</v>
       </c>
       <c r="D7">
-        <v>0.0812883953761316</v>
+        <v>0.08128839351192337</v>
       </c>
       <c r="E7">
-        <v>7.53824400929427</v>
+        <v>7.538243668832624</v>
       </c>
       <c r="F7">
-        <v>1.300874183250051</v>
+        <v>1.300874181570857</v>
       </c>
       <c r="G7">
-        <v>0.0006950721252931491</v>
+        <v>0.0006950721198149963</v>
       </c>
       <c r="H7">
-        <v>0.0001565284555452828</v>
+        <v>0.0001565284552829067</v>
       </c>
       <c r="I7">
-        <v>0.06745111190767715</v>
+        <v>0.06745111143267697</v>
       </c>
       <c r="J7">
-        <v>1.659919566655523</v>
+        <v>1.659919529354271</v>
       </c>
       <c r="K7">
-        <v>0.0899867710530797</v>
+        <v>0.08998677107759283</v>
       </c>
       <c r="L7">
-        <v>0.6312150324367632</v>
+        <v>0.6312150441198595</v>
       </c>
       <c r="M7">
-        <v>0.003212259509732595</v>
+        <v>0.003212259526624272</v>
       </c>
       <c r="N7">
-        <v>6.293643576722832E-07</v>
+        <v>6.293643546893915E-07</v>
       </c>
       <c r="O7">
-        <v>0.003389902816330198</v>
+        <v>0.003389902789704605</v>
       </c>
       <c r="P7">
-        <v>0.005516683468745913</v>
+        <v>0.005516683433302299</v>
       </c>
       <c r="Q7">
-        <v>0.006030270402828204</v>
+        <v>0.006030270365574002</v>
       </c>
       <c r="R7">
-        <v>0.04233379402254211</v>
+        <v>0.04233379398194024</v>
       </c>
       <c r="S7">
-        <v>1.443339807462261E-08</v>
+        <v>1.443339813272252E-08</v>
       </c>
       <c r="T7">
-        <v>4.897914746006663E-06</v>
+        <v>4.897914712059315E-06</v>
       </c>
       <c r="U7">
-        <v>0.4957872290939699</v>
+        <v>0.4957872287665345</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.001022410068798546</v>
+        <v>0.001022410063651707</v>
       </c>
       <c r="B8">
-        <v>0.1671249427400933</v>
+        <v>0.1671249425953577</v>
       </c>
       <c r="C8">
-        <v>0.02542561168140022</v>
+        <v>0.02542561155381822</v>
       </c>
       <c r="D8">
-        <v>0.03525272090567552</v>
+        <v>0.03525272072831435</v>
       </c>
       <c r="E8">
-        <v>7.355646502552362</v>
+        <v>7.355646459751087</v>
       </c>
       <c r="F8">
-        <v>0.06922828452475037</v>
+        <v>0.06922828454737817</v>
       </c>
       <c r="G8">
-        <v>5.755860548260059E-05</v>
+        <v>5.755860506774024E-05</v>
       </c>
       <c r="H8">
-        <v>5.097098933115707E-06</v>
+        <v>5.097098921521596E-06</v>
       </c>
       <c r="I8">
-        <v>0.01405179600849487</v>
+        <v>0.01405179598772805</v>
       </c>
       <c r="J8">
-        <v>0.3317613450637821</v>
+        <v>0.331761340909242</v>
       </c>
       <c r="K8">
-        <v>0.002150464180837887</v>
+        <v>0.002150464182706125</v>
       </c>
       <c r="L8">
-        <v>0.001500135223476624</v>
+        <v>0.00150013662174899</v>
       </c>
       <c r="M8">
-        <v>0.006047829506984387</v>
+        <v>0.006047829521833958</v>
       </c>
       <c r="N8">
-        <v>6.892006738070163E-08</v>
+        <v>6.89200672663482E-08</v>
       </c>
       <c r="O8">
-        <v>0.0004143913485568983</v>
+        <v>0.0004143913467644604</v>
       </c>
       <c r="P8">
-        <v>0.0003686160843285018</v>
+        <v>0.0003686160844608188</v>
       </c>
       <c r="Q8">
-        <v>0.0003943382340054113</v>
+        <v>0.0003943382343203058</v>
       </c>
       <c r="R8">
-        <v>0.001892874628517919</v>
+        <v>0.00189287462672439</v>
       </c>
       <c r="S8">
-        <v>8.929309205106672E-10</v>
+        <v>8.929309305939206E-10</v>
       </c>
       <c r="T8">
-        <v>5.423183355624784E-07</v>
+        <v>5.423183332831473E-07</v>
       </c>
       <c r="U8">
-        <v>0.02615081596333904</v>
+        <v>0.0261508160001776</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006959573919925922</v>
+        <v>0.006959574625435574</v>
       </c>
       <c r="B9">
-        <v>0.6155803202349828</v>
+        <v>0.6155803820276831</v>
       </c>
       <c r="C9">
-        <v>0.2690750818020927</v>
+        <v>0.2690750988030605</v>
       </c>
       <c r="D9">
-        <v>0.3180248701726863</v>
+        <v>0.3180248934877828</v>
       </c>
       <c r="E9">
-        <v>24.6380547834142</v>
+        <v>24.63805946051438</v>
       </c>
       <c r="F9">
-        <v>0.1593620410272614</v>
+        <v>0.1593620557592074</v>
       </c>
       <c r="G9">
-        <v>-0.000219500306704529</v>
+        <v>-0.0002195002719928481</v>
       </c>
       <c r="H9">
-        <v>0.001596620080185962</v>
+        <v>0.001596620081891945</v>
       </c>
       <c r="I9">
-        <v>0.03259463537380515</v>
+        <v>0.03259464423596408</v>
       </c>
       <c r="J9">
-        <v>1.379420947296503</v>
+        <v>1.379421417881845</v>
       </c>
       <c r="K9">
-        <v>0.01479103831119159</v>
+        <v>0.0147910390344633</v>
       </c>
       <c r="L9">
-        <v>2.123278581836438</v>
+        <v>2.123278727287476</v>
       </c>
       <c r="M9">
-        <v>0.003915596677455747</v>
+        <v>0.00391559535788018</v>
       </c>
       <c r="N9">
-        <v>-2.20577136877101E-06</v>
+        <v>-2.205771344950573E-06</v>
       </c>
       <c r="O9">
-        <v>0.002887217478949553</v>
+        <v>0.002887217726674122</v>
       </c>
       <c r="P9">
-        <v>0.004960198178156814</v>
+        <v>0.004960198499286118</v>
       </c>
       <c r="Q9">
-        <v>0.005064426100519053</v>
+        <v>0.005064426434426866</v>
       </c>
       <c r="R9">
-        <v>0.006986423553474772</v>
+        <v>0.006986423783827785</v>
       </c>
       <c r="S9">
-        <v>2.30364996539082E-08</v>
+        <v>2.303650140158188E-08</v>
       </c>
       <c r="T9">
-        <v>2.826953495965573E-06</v>
+        <v>2.826953846389693E-06</v>
       </c>
       <c r="U9">
-        <v>0.02732441292709631</v>
+        <v>0.02732441656855179</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0003115072769597658</v>
+        <v>-0.0003115072767811179</v>
       </c>
       <c r="B10">
-        <v>-2.091157204267517</v>
+        <v>-2.091157202973177</v>
       </c>
       <c r="C10">
-        <v>-0.1048303069195618</v>
+        <v>-0.1048303069056663</v>
       </c>
       <c r="D10">
-        <v>-0.1494219354366175</v>
+        <v>-0.1494219354123545</v>
       </c>
       <c r="E10">
-        <v>-5.012678661141836</v>
+        <v>-5.012678633306131</v>
       </c>
       <c r="F10">
-        <v>-0.01911711049838691</v>
+        <v>-0.0191171097887507</v>
       </c>
       <c r="G10">
-        <v>-5.107723752260324E-05</v>
+        <v>-5.107723892939753E-05</v>
       </c>
       <c r="H10">
-        <v>-9.19443332546707E-06</v>
+        <v>-9.194433378205041E-06</v>
       </c>
       <c r="I10">
-        <v>-0.01848902476358691</v>
+        <v>-0.01848902463520795</v>
       </c>
       <c r="J10">
-        <v>-1.44544574610156</v>
+        <v>-1.445445745009571</v>
       </c>
       <c r="K10">
-        <v>0.001344091802142519</v>
+        <v>0.0013440918820573</v>
       </c>
       <c r="L10">
-        <v>-0.004184455275819478</v>
+        <v>-0.00418445693982219</v>
       </c>
       <c r="M10">
-        <v>-0.0002959821854108844</v>
+        <v>-0.0002959822312557854</v>
       </c>
       <c r="N10">
-        <v>-3.082511817225798E-07</v>
+        <v>-3.08251181607946E-07</v>
       </c>
       <c r="O10">
-        <v>-0.000145328866393634</v>
+        <v>-0.0001453288698099504</v>
       </c>
       <c r="P10">
-        <v>-0.0004398889251747873</v>
+        <v>-0.0004398889203765712</v>
       </c>
       <c r="Q10">
-        <v>-0.0004485041400501608</v>
+        <v>-0.00044850413365407</v>
       </c>
       <c r="R10">
-        <v>-0.001904021530516057</v>
+        <v>-0.001904021539363122</v>
       </c>
       <c r="S10">
-        <v>-6.196312511064403E-09</v>
+        <v>-6.196312521956509E-09</v>
       </c>
       <c r="T10">
-        <v>-2.427839524262599E-06</v>
+        <v>-2.4278395245504E-06</v>
       </c>
       <c r="U10">
-        <v>-0.0064392031202614</v>
+        <v>-0.006439202736613508</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>-0.0003027669015385121</v>
+        <v>-0.0003027668856407989</v>
       </c>
       <c r="B11">
-        <v>-2.221943815038778</v>
+        <v>-2.221943820562041</v>
       </c>
       <c r="C11">
-        <v>-0.1850631259222897</v>
+        <v>-0.185063126273686</v>
       </c>
       <c r="D11">
-        <v>-0.2545303523695521</v>
+        <v>-0.254530352760748</v>
       </c>
       <c r="E11">
-        <v>-4.952473623606734</v>
+        <v>-4.952473569677243</v>
       </c>
       <c r="F11">
-        <v>-0.01877483466829495</v>
+        <v>-0.01877483732521159</v>
       </c>
       <c r="G11">
-        <v>-5.13508812520892E-05</v>
+        <v>-5.135087788376926E-05</v>
       </c>
       <c r="H11">
-        <v>-1.187452107314901E-05</v>
+        <v>-1.18745210247882E-05</v>
       </c>
       <c r="I11">
-        <v>-0.04147360659057331</v>
+        <v>-0.04147360757254726</v>
       </c>
       <c r="J11">
-        <v>-2.983676692500754</v>
+        <v>-2.983676684212474</v>
       </c>
       <c r="K11">
-        <v>0.001162910285801896</v>
+        <v>0.001162910121214138</v>
       </c>
       <c r="L11">
-        <v>-0.004256605059302664</v>
+        <v>-0.004256696788461476</v>
       </c>
       <c r="M11">
-        <v>0.0001473899195911883</v>
+        <v>0.000147389789250457</v>
       </c>
       <c r="N11">
-        <v>-4.537780294629463E-07</v>
+        <v>-4.53778029267464E-07</v>
       </c>
       <c r="O11">
-        <v>-0.0001344152441430524</v>
+        <v>-0.000134415234043742</v>
       </c>
       <c r="P11">
-        <v>-0.0004941234600305379</v>
+        <v>-0.0004941234660000173</v>
       </c>
       <c r="Q11">
-        <v>-0.0005021256227835315</v>
+        <v>-0.0005021256348866579</v>
       </c>
       <c r="R11">
-        <v>-0.00226954377829973</v>
+        <v>-0.002269543777212304</v>
       </c>
       <c r="S11">
-        <v>-6.63429765172987E-09</v>
+        <v>-6.634298477064008E-09</v>
       </c>
       <c r="T11">
-        <v>-2.970549604722849E-06</v>
+        <v>-2.970549604877518E-06</v>
       </c>
       <c r="U11">
-        <v>-0.00676770013787578</v>
+        <v>-0.006767701450532824</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>6.594770499585091E-05</v>
+        <v>7.157408407385522E-05</v>
       </c>
       <c r="B12">
-        <v>0.01915212104710587</v>
+        <v>0.0150599971166793</v>
       </c>
       <c r="C12">
-        <v>0.002370555546357602</v>
+        <v>0.002545510668403916</v>
       </c>
       <c r="D12">
-        <v>0.002997809063412047</v>
+        <v>0.003206821358341197</v>
       </c>
       <c r="E12">
-        <v>0.2222254385832027</v>
+        <v>0.2331783553673426</v>
       </c>
       <c r="F12">
-        <v>0.005090922430838445</v>
+        <v>0.003613910321514824</v>
       </c>
       <c r="G12">
-        <v>7.252054304993121E-06</v>
+        <v>7.300408751266903E-06</v>
       </c>
       <c r="H12">
-        <v>6.385781892077899E-07</v>
+        <v>6.459161324359108E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007446738895706913</v>
+        <v>0.0007985159700319049</v>
       </c>
       <c r="J12">
-        <v>0.03061087012834336</v>
+        <v>0.03287196981116228</v>
       </c>
       <c r="K12">
-        <v>0.00292210762486094</v>
+        <v>0.002913619351197714</v>
       </c>
       <c r="L12">
-        <v>0.0150356901472809</v>
+        <v>0.0184840377525454</v>
       </c>
       <c r="M12">
-        <v>6.21739115094234E-06</v>
+        <v>7.368236125387524E-06</v>
       </c>
       <c r="N12">
-        <v>2.195597673734798E-08</v>
+        <v>2.321287877350058E-08</v>
       </c>
       <c r="O12">
-        <v>4.12314858557582E-05</v>
+        <v>4.285286707388334E-05</v>
       </c>
       <c r="P12">
-        <v>8.090110608391665E-05</v>
+        <v>8.472445213277982E-05</v>
       </c>
       <c r="Q12">
-        <v>8.362450513850752E-05</v>
+        <v>8.707719896715191E-05</v>
       </c>
       <c r="R12">
-        <v>0.0002613252190061327</v>
+        <v>0.0001217629869668088</v>
       </c>
       <c r="S12">
-        <v>2.210768899746011E-10</v>
+        <v>2.421302439637363E-10</v>
       </c>
       <c r="T12">
-        <v>5.383831505567906E-08</v>
+        <v>5.144874227566791E-08</v>
       </c>
       <c r="U12">
-        <v>0.001606038000799707</v>
+        <v>0.001084185338981324</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0003736670232649228</v>
+        <v>0.0003736670248874391</v>
       </c>
       <c r="B13">
-        <v>0.03547839107236168</v>
+        <v>0.03547839140486797</v>
       </c>
       <c r="C13">
-        <v>0.01735694912740053</v>
+        <v>0.01735694915999064</v>
       </c>
       <c r="D13">
-        <v>0.02142888673014889</v>
+        <v>0.02142888676999175</v>
       </c>
       <c r="E13">
-        <v>1.087724678109787</v>
+        <v>1.087724674049375</v>
       </c>
       <c r="F13">
-        <v>0.008745847142620361</v>
+        <v>0.008745847235212524</v>
       </c>
       <c r="G13">
-        <v>1.429857810685921E-05</v>
+        <v>1.429857812287663E-05</v>
       </c>
       <c r="H13">
-        <v>1.527606176405752E-06</v>
+        <v>1.527606199976676E-06</v>
       </c>
       <c r="I13">
-        <v>0.005329533741063363</v>
+        <v>0.005329533782819052</v>
       </c>
       <c r="J13">
-        <v>0.172810898130994</v>
+        <v>0.1728108983153596</v>
       </c>
       <c r="K13">
-        <v>8.878998522786345E-05</v>
+        <v>8.878997962951463E-05</v>
       </c>
       <c r="L13">
-        <v>0.1748642708761582</v>
+        <v>0.1748642705647538</v>
       </c>
       <c r="M13">
-        <v>0.000460913378277969</v>
+        <v>0.0004609133840020547</v>
       </c>
       <c r="N13">
-        <v>1.678931466750768E-07</v>
+        <v>1.678931467406061E-07</v>
       </c>
       <c r="O13">
-        <v>0.0001317687004893541</v>
+        <v>0.0001317687011226812</v>
       </c>
       <c r="P13">
-        <v>0.0004362982515803597</v>
+        <v>0.0004362982534339567</v>
       </c>
       <c r="Q13">
-        <v>0.0004458788711034574</v>
+        <v>0.0004458788731957913</v>
       </c>
       <c r="R13">
-        <v>0.0003881229383973464</v>
+        <v>0.0003881229400763895</v>
       </c>
       <c r="S13">
-        <v>1.822862674507104E-09</v>
+        <v>1.822862673279233E-09</v>
       </c>
       <c r="T13">
-        <v>1.742287657344091E-07</v>
+        <v>1.742287666274203E-07</v>
       </c>
       <c r="U13">
-        <v>0.002905565969145943</v>
+        <v>0.002905566002697639</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.00844659564509918</v>
+        <v>0.008446596571867601</v>
       </c>
       <c r="B14">
-        <v>0.8152283312767684</v>
+        <v>0.815228431946409</v>
       </c>
       <c r="C14">
-        <v>0.5096466663346745</v>
+        <v>0.5096466928701617</v>
       </c>
       <c r="D14">
-        <v>0.6197106620595215</v>
+        <v>0.6197106981131373</v>
       </c>
       <c r="E14">
-        <v>34.24859852050502</v>
+        <v>34.2486050569434</v>
       </c>
       <c r="F14">
-        <v>0.1986025646786959</v>
+        <v>0.1986025899082985</v>
       </c>
       <c r="G14">
-        <v>0.0004588961059078038</v>
+        <v>0.0004588961563370567</v>
       </c>
       <c r="H14">
-        <v>0.001235671645883422</v>
+        <v>0.00123567164901963</v>
       </c>
       <c r="I14">
-        <v>0.104243842343689</v>
+        <v>0.1042438571700578</v>
       </c>
       <c r="J14">
-        <v>4.278607551034469</v>
+        <v>4.278608224202924</v>
       </c>
       <c r="K14">
-        <v>0.01762965002173741</v>
+        <v>0.01762965181746102</v>
       </c>
       <c r="L14">
-        <v>2.822853417742448</v>
+        <v>2.822853463648839</v>
       </c>
       <c r="M14">
-        <v>0.002063282370983983</v>
+        <v>0.002063281860605282</v>
       </c>
       <c r="N14">
-        <v>1.929764426391214E-06</v>
+        <v>1.929764465109008E-06</v>
       </c>
       <c r="O14">
-        <v>0.003115942459923259</v>
+        <v>0.003115942773153135</v>
       </c>
       <c r="P14">
-        <v>0.007495161673047246</v>
+        <v>0.007495162065081321</v>
       </c>
       <c r="Q14">
-        <v>0.007669981114070321</v>
+        <v>0.007669981532969366</v>
       </c>
       <c r="R14">
-        <v>0.008047583864236155</v>
+        <v>0.008047584318355099</v>
       </c>
       <c r="S14">
-        <v>3.121155813164239E-08</v>
+        <v>3.121155920214266E-08</v>
       </c>
       <c r="T14">
-        <v>4.062327622556343E-06</v>
+        <v>4.062328116744649E-06</v>
       </c>
       <c r="U14">
-        <v>0.05658617595437551</v>
+        <v>0.05658618287487552</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0003494982769725432</v>
+        <v>0.0003494982772875271</v>
       </c>
       <c r="B15">
-        <v>0.01855843273234735</v>
+        <v>0.01855843284645929</v>
       </c>
       <c r="C15">
-        <v>0.01098912015162067</v>
+        <v>0.01098912015596749</v>
       </c>
       <c r="D15">
-        <v>0.0152443302101365</v>
+        <v>0.01524433021484075</v>
       </c>
       <c r="E15">
-        <v>3.264321952544929</v>
+        <v>3.264321951175925</v>
       </c>
       <c r="F15">
-        <v>0.004552448384717302</v>
+        <v>0.004552448421580246</v>
       </c>
       <c r="G15">
-        <v>1.910487327829949E-05</v>
+        <v>1.910487328077685E-05</v>
       </c>
       <c r="H15">
-        <v>6.950377643947369E-07</v>
+        <v>6.950377671923915E-07</v>
       </c>
       <c r="I15">
-        <v>0.005047138254191204</v>
+        <v>0.005047138265407886</v>
       </c>
       <c r="J15">
-        <v>0.1364140599415152</v>
+        <v>0.136414059858532</v>
       </c>
       <c r="K15">
-        <v>0.0001865478364127617</v>
+        <v>0.0001865478382205968</v>
       </c>
       <c r="L15">
-        <v>0.0008428024710126215</v>
+        <v>0.0008428021889898095</v>
       </c>
       <c r="M15">
-        <v>0.002545299619575384</v>
+        <v>0.002545299623250796</v>
       </c>
       <c r="N15">
-        <v>5.765542920008924E-09</v>
+        <v>5.765542953560824E-09</v>
       </c>
       <c r="O15">
-        <v>0.0001336462469921406</v>
+        <v>0.0001336462471996579</v>
       </c>
       <c r="P15">
-        <v>6.607934797160176E-05</v>
+        <v>6.607934876349919E-05</v>
       </c>
       <c r="Q15">
-        <v>6.891289983806622E-05</v>
+        <v>6.891290067795417E-05</v>
       </c>
       <c r="R15">
-        <v>-1.265926855105754E-05</v>
+        <v>-1.265926826667124E-05</v>
       </c>
       <c r="S15">
-        <v>2.017326805728787E-10</v>
+        <v>2.017326785537209E-10</v>
       </c>
       <c r="T15">
-        <v>1.490714927398E-07</v>
+        <v>1.490714929959585E-07</v>
       </c>
       <c r="U15">
-        <v>0.001563766591130579</v>
+        <v>0.001563766606136697</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>3.708647408185761E-05</v>
+        <v>3.708647535825162E-05</v>
       </c>
       <c r="B16">
-        <v>0.003338416584266691</v>
+        <v>0.003338416856450487</v>
       </c>
       <c r="C16">
-        <v>0.002499280145722626</v>
+        <v>0.002499280184028452</v>
       </c>
       <c r="D16">
-        <v>0.003047335028869901</v>
+        <v>0.003047335080248404</v>
       </c>
       <c r="E16">
-        <v>0.1585703924066002</v>
+        <v>0.1585704011044015</v>
       </c>
       <c r="F16">
-        <v>0.0007670949881754312</v>
+        <v>0.000767095082127805</v>
       </c>
       <c r="G16">
-        <v>1.458626211946174E-06</v>
+        <v>1.45862619849801E-06</v>
       </c>
       <c r="H16">
-        <v>1.286843307254647E-07</v>
+        <v>1.286843350845702E-07</v>
       </c>
       <c r="I16">
-        <v>0.0005170129623434573</v>
+        <v>0.0005170130009465293</v>
       </c>
       <c r="J16">
-        <v>0.01972150726323513</v>
+        <v>0.01972150811265594</v>
       </c>
       <c r="K16">
-        <v>1.608536582540563E-05</v>
+        <v>1.60853751329155E-05</v>
       </c>
       <c r="L16">
-        <v>0.01315159284653725</v>
+        <v>0.01315159685357525</v>
       </c>
       <c r="M16">
-        <v>2.294986809444041E-06</v>
+        <v>2.29498591910189E-06</v>
       </c>
       <c r="N16">
-        <v>1.286921458194122E-08</v>
+        <v>1.286921466738367E-08</v>
       </c>
       <c r="O16">
-        <v>1.29317470710072E-05</v>
+        <v>1.293174743124385E-05</v>
       </c>
       <c r="P16">
-        <v>3.492260898640712E-05</v>
+        <v>3.492261043091522E-05</v>
       </c>
       <c r="Q16">
-        <v>3.572137894878646E-05</v>
+        <v>3.572138057138326E-05</v>
       </c>
       <c r="R16">
-        <v>3.101371714118827E-05</v>
+        <v>3.101371745463822E-05</v>
       </c>
       <c r="S16">
-        <v>1.432707416654345E-10</v>
+        <v>1.432707785993119E-10</v>
       </c>
       <c r="T16">
-        <v>1.754646618846381E-08</v>
+        <v>1.754646699124096E-08</v>
       </c>
       <c r="U16">
-        <v>0.0002378859566634104</v>
+        <v>0.0002378859964499442</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.000240058500848337</v>
+        <v>0.0002400585028104228</v>
       </c>
       <c r="B17">
-        <v>0.1932148930342083</v>
+        <v>0.1932148932224869</v>
       </c>
       <c r="C17">
-        <v>0.005356596835667078</v>
+        <v>0.005356596846725797</v>
       </c>
       <c r="D17">
-        <v>0.009062752289540761</v>
+        <v>0.00906275230506659</v>
       </c>
       <c r="E17">
-        <v>3.722526475245753</v>
+        <v>3.722526479473419</v>
       </c>
       <c r="F17">
-        <v>0.06151576165540422</v>
+        <v>0.06151576171335785</v>
       </c>
       <c r="G17">
-        <v>1.93611796429329E-05</v>
+        <v>1.936117962585941E-05</v>
       </c>
       <c r="H17">
-        <v>5.24494616424086E-06</v>
+        <v>5.24494616745425E-06</v>
       </c>
       <c r="I17">
-        <v>0.00256984719999084</v>
+        <v>0.002569847212928882</v>
       </c>
       <c r="J17">
-        <v>0.1633231687806768</v>
+        <v>0.1633231691071419</v>
       </c>
       <c r="K17">
-        <v>0.0008394809350403583</v>
+        <v>0.0008394809393083727</v>
       </c>
       <c r="L17">
-        <v>0.007997813265503072</v>
+        <v>0.007997817489962693</v>
       </c>
       <c r="M17">
-        <v>0.0008360682901379233</v>
+        <v>0.0008360682938083957</v>
       </c>
       <c r="N17">
-        <v>8.612594951731066E-08</v>
+        <v>8.612594961326586E-08</v>
       </c>
       <c r="O17">
-        <v>0.0001479688956728715</v>
+        <v>0.000147968896419112</v>
       </c>
       <c r="P17">
-        <v>0.0003069426455537174</v>
+        <v>0.0003069426476480183</v>
       </c>
       <c r="Q17">
-        <v>0.0003484561804037245</v>
+        <v>0.0003484561826039866</v>
       </c>
       <c r="R17">
-        <v>0.000286491039343999</v>
+        <v>0.0002864910394116838</v>
       </c>
       <c r="S17">
-        <v>7.680304129392236E-10</v>
+        <v>7.680304517117852E-10</v>
       </c>
       <c r="T17">
-        <v>3.190607216038002E-07</v>
+        <v>3.190607223669135E-07</v>
       </c>
       <c r="U17">
-        <v>0.02591120975153574</v>
+        <v>0.02591120977699839</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.003211433261187718</v>
+        <v>0.003211433216640382</v>
       </c>
       <c r="B18">
-        <v>1.192351082061822</v>
+        <v>1.192351060796973</v>
       </c>
       <c r="C18">
-        <v>0.04087487259226548</v>
+        <v>0.04087487098822238</v>
       </c>
       <c r="D18">
-        <v>0.05159470060995446</v>
+        <v>0.05159469838222211</v>
       </c>
       <c r="E18">
-        <v>7.351984098201516</v>
+        <v>7.351983596216917</v>
       </c>
       <c r="F18">
-        <v>0.2589782477432627</v>
+        <v>0.2589782396364989</v>
       </c>
       <c r="G18">
-        <v>0.0005037090528337909</v>
+        <v>0.0005037090568482609</v>
       </c>
       <c r="H18">
-        <v>-0.002462599941780429</v>
+        <v>-0.002462599941909879</v>
       </c>
       <c r="I18">
-        <v>0.02425252992260903</v>
+        <v>0.02425252714232171</v>
       </c>
       <c r="J18">
-        <v>2.397394039135905</v>
+        <v>2.397393995972985</v>
       </c>
       <c r="K18">
-        <v>0.05817103582373146</v>
+        <v>0.05817103527207869</v>
       </c>
       <c r="L18">
-        <v>2.002549938657059</v>
+        <v>2.002549866252296</v>
       </c>
       <c r="M18">
-        <v>0.001342251123241225</v>
+        <v>0.001342251333892296</v>
       </c>
       <c r="N18">
-        <v>3.000385327047724E-07</v>
+        <v>3.000385294368066E-07</v>
       </c>
       <c r="O18">
-        <v>0.002814345986595491</v>
+        <v>0.002814345982535904</v>
       </c>
       <c r="P18">
-        <v>0.004199702848534534</v>
+        <v>0.004199702799247307</v>
       </c>
       <c r="Q18">
-        <v>0.00430823772256643</v>
+        <v>0.004308237660289904</v>
       </c>
       <c r="R18">
-        <v>0.06643524726425409</v>
+        <v>0.06643524725422482</v>
       </c>
       <c r="S18">
-        <v>2.27845567656152E-08</v>
+        <v>2.27845560414607E-08</v>
       </c>
       <c r="T18">
-        <v>3.655687336775221E-06</v>
+        <v>3.655687295357765E-06</v>
       </c>
       <c r="U18">
-        <v>0.08608849990822459</v>
+        <v>0.08608849638172864</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
@@ -507,1107 +507,1107 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0002648861834363426</v>
+        <v>0.0002646723943036203</v>
       </c>
       <c r="B2">
-        <v>0.3694883583482985</v>
+        <v>0.3694710924157372</v>
       </c>
       <c r="C2">
-        <v>0.006938412938270854</v>
+        <v>0.006936730581982947</v>
       </c>
       <c r="D2">
-        <v>0.01116737972325737</v>
+        <v>0.0111649087017079</v>
       </c>
       <c r="E2">
-        <v>0.5618050353420507</v>
+        <v>0.5616594405355794</v>
       </c>
       <c r="F2">
-        <v>0.1312729432758574</v>
+        <v>0.1312637871439402</v>
       </c>
       <c r="G2">
-        <v>1.351952920891994E-05</v>
+        <v>1.346534972436345E-05</v>
       </c>
       <c r="H2">
-        <v>2.780557336355978E-06</v>
+        <v>2.746555447224514E-06</v>
       </c>
       <c r="I2">
-        <v>0.002931471442567688</v>
+        <v>0.002928800280849251</v>
       </c>
       <c r="J2">
-        <v>0.1232294400651579</v>
+        <v>0.1231192272977969</v>
       </c>
       <c r="K2">
-        <v>0.0003073593329319574</v>
+        <v>0.0003064494543580358</v>
       </c>
       <c r="L2">
-        <v>-0.06952443498365869</v>
+        <v>-0.06953295440337215</v>
       </c>
       <c r="M2">
-        <v>0.000162926622921204</v>
+        <v>0.0001629272046323423</v>
       </c>
       <c r="N2">
-        <v>-4.08700156577727E-08</v>
+        <v>-4.086481478619986E-08</v>
       </c>
       <c r="O2">
-        <v>0.0001248656798915637</v>
+        <v>0.0001246592656672276</v>
       </c>
       <c r="P2">
-        <v>0.0002055701007998883</v>
+        <v>0.000205440364600204</v>
       </c>
       <c r="Q2">
-        <v>0.0002318638652644136</v>
+        <v>0.0002317327483162657</v>
       </c>
       <c r="R2">
-        <v>0.001390022815900228</v>
+        <v>0.001389757278699906</v>
       </c>
       <c r="S2">
-        <v>5.258821224646742E-10</v>
+        <v>5.256565427433755E-10</v>
       </c>
       <c r="T2">
-        <v>4.624106160832593E-07</v>
+        <v>4.622301126552696E-07</v>
       </c>
       <c r="U2">
-        <v>0.05315460492995297</v>
+        <v>0.05315441498117995</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0005217443763073978</v>
+        <v>0.0005216302470066619</v>
       </c>
       <c r="B3">
-        <v>0.04458917999026743</v>
+        <v>0.04454178858743574</v>
       </c>
       <c r="C3">
-        <v>0.02514845929174458</v>
+        <v>0.02514855873430091</v>
       </c>
       <c r="D3">
-        <v>0.03061539291569893</v>
+        <v>0.03061539022565133</v>
       </c>
       <c r="E3">
-        <v>2.31724735562381</v>
+        <v>2.317263923665999</v>
       </c>
       <c r="F3">
-        <v>0.01122870973363907</v>
+        <v>0.01121757484075297</v>
       </c>
       <c r="G3">
-        <v>1.114180250967016E-05</v>
+        <v>1.111781587842124E-05</v>
       </c>
       <c r="H3">
-        <v>8.299748018844644E-05</v>
+        <v>8.299604577928945E-05</v>
       </c>
       <c r="I3">
-        <v>0.004702795005532369</v>
+        <v>0.004701125250241838</v>
       </c>
       <c r="J3">
-        <v>0.2222791694634381</v>
+        <v>0.2222486493987793</v>
       </c>
       <c r="K3">
-        <v>0.001052736414046016</v>
+        <v>0.001053918336943368</v>
       </c>
       <c r="L3">
-        <v>0.1476675264784855</v>
+        <v>0.1476712969118822</v>
       </c>
       <c r="M3">
-        <v>-5.378647552724244E-05</v>
+        <v>-5.378265513241545E-05</v>
       </c>
       <c r="N3">
-        <v>1.058667598847535E-09</v>
+        <v>1.050435467857002E-09</v>
       </c>
       <c r="O3">
-        <v>0.0001967723577822369</v>
+        <v>0.0001966470765341141</v>
       </c>
       <c r="P3">
-        <v>0.000387103045693929</v>
+        <v>0.000387001397801823</v>
       </c>
       <c r="Q3">
-        <v>0.0003958674254878675</v>
+        <v>0.000395765262424173</v>
       </c>
       <c r="R3">
-        <v>0.0004538639937675486</v>
+        <v>0.0004537308602183302</v>
       </c>
       <c r="S3">
-        <v>1.650602857713619E-09</v>
+        <v>1.650450379312042E-09</v>
       </c>
       <c r="T3">
-        <v>2.326735901995271E-07</v>
+        <v>2.325379597696775E-07</v>
       </c>
       <c r="U3">
-        <v>0.002632041315251829</v>
+        <v>0.00263087431234035</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716126484062</v>
+        <v>0.006992716156851834</v>
       </c>
       <c r="B4">
-        <v>2.903410306228261</v>
+        <v>2.903410309906344</v>
       </c>
       <c r="C4">
-        <v>0.07038871833563133</v>
+        <v>0.07038872001346687</v>
       </c>
       <c r="D4">
-        <v>0.09440797806140114</v>
+        <v>0.09440798035776327</v>
       </c>
       <c r="E4">
-        <v>8.341453514822499</v>
+        <v>8.341453940427302</v>
       </c>
       <c r="F4">
-        <v>1.848787726014153</v>
+        <v>1.848787726828756</v>
       </c>
       <c r="G4">
-        <v>0.0007213160934482902</v>
+        <v>0.0007213160978981694</v>
       </c>
       <c r="H4">
-        <v>0.0001023750977304156</v>
+        <v>0.0001023750978154829</v>
       </c>
       <c r="I4">
-        <v>0.08131586774565855</v>
+        <v>0.08131586871138878</v>
       </c>
       <c r="J4">
-        <v>1.694323710604279</v>
+        <v>1.694323753862053</v>
       </c>
       <c r="K4">
-        <v>0.1197926433965415</v>
+        <v>0.1197926434439112</v>
       </c>
       <c r="L4">
-        <v>0.1250208553312027</v>
+        <v>0.125020853732225</v>
       </c>
       <c r="M4">
-        <v>0.003473828979133052</v>
+        <v>0.003473828980793232</v>
       </c>
       <c r="N4">
-        <v>4.730718246104467E-07</v>
+        <v>4.730718221576703E-07</v>
       </c>
       <c r="O4">
-        <v>0.00390091925320613</v>
+        <v>0.003900919258575655</v>
       </c>
       <c r="P4">
-        <v>0.006715645244612525</v>
+        <v>0.006715645181341422</v>
       </c>
       <c r="Q4">
-        <v>0.00742223398086168</v>
+        <v>0.007422233920589624</v>
       </c>
       <c r="R4">
-        <v>0.045199072746964</v>
+        <v>0.04519907278821039</v>
       </c>
       <c r="S4">
-        <v>1.231828976476699E-08</v>
+        <v>1.231828976878E-08</v>
       </c>
       <c r="T4">
-        <v>5.909946366762085E-06</v>
+        <v>5.909946386628021E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457883269297</v>
+        <v>0.7120457882645462</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>1.045268349656474E-05</v>
+        <v>1.045268349667739E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009338764912957512</v>
+        <v>0.0009338764909956511</v>
       </c>
       <c r="C5">
-        <v>0.0003408795383156719</v>
+        <v>0.0003408795383523723</v>
       </c>
       <c r="D5">
-        <v>0.001489825328862234</v>
+        <v>0.001489825328919748</v>
       </c>
       <c r="E5">
-        <v>0.05933654356898306</v>
+        <v>0.05933654358196971</v>
       </c>
       <c r="F5">
-        <v>0.0002388097094031956</v>
+        <v>0.0002388097092501001</v>
       </c>
       <c r="G5">
-        <v>2.24444380846596E-07</v>
+        <v>2.244443813074147E-07</v>
       </c>
       <c r="H5">
-        <v>2.940230558942118E-08</v>
+        <v>2.94023055790863E-08</v>
       </c>
       <c r="I5">
-        <v>8.878766898386977E-05</v>
+        <v>8.878766902605521E-05</v>
       </c>
       <c r="J5">
-        <v>0.006597698284956393</v>
+        <v>0.006597698286115432</v>
       </c>
       <c r="K5">
-        <v>-2.301735611803668E-05</v>
+        <v>-2.301735609704827E-05</v>
       </c>
       <c r="L5">
-        <v>4.804244612547479E-05</v>
+        <v>4.80424462990982E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002187085847326044</v>
+        <v>0.0002187085847060317</v>
       </c>
       <c r="N5">
-        <v>2.640842786240283E-09</v>
+        <v>2.640842785711657E-09</v>
       </c>
       <c r="O5">
-        <v>4.348836728729541E-06</v>
+        <v>4.348836728397027E-06</v>
       </c>
       <c r="P5">
-        <v>9.181136520109805E-06</v>
+        <v>9.181136506399753E-06</v>
       </c>
       <c r="Q5">
-        <v>9.38446415306227E-06</v>
+        <v>9.38446413866794E-06</v>
       </c>
       <c r="R5">
-        <v>-1.660040583214114E-06</v>
+        <v>-1.660040580640854E-06</v>
       </c>
       <c r="S5">
-        <v>7.689420593755497E-12</v>
+        <v>7.689420593111054E-12</v>
       </c>
       <c r="T5">
-        <v>5.405736829426336E-09</v>
+        <v>5.405736829334122E-09</v>
       </c>
       <c r="U5">
-        <v>0.0001319971317132933</v>
+        <v>0.000131997131595137</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01738270258780469</v>
+        <v>0.0172355348041119</v>
       </c>
       <c r="B6">
-        <v>0.903442921193654</v>
+        <v>0.8423395377495404</v>
       </c>
       <c r="C6">
-        <v>0.6378164088935513</v>
+        <v>0.6379439843841606</v>
       </c>
       <c r="D6">
-        <v>0.8601234653378073</v>
+        <v>0.8601191274460525</v>
       </c>
       <c r="E6">
-        <v>141.2544908087713</v>
+        <v>141.2756881313846</v>
       </c>
       <c r="F6">
-        <v>0.2576648745706042</v>
+        <v>0.2433081077526297</v>
       </c>
       <c r="G6">
-        <v>0.001260926036785838</v>
+        <v>0.001229999333567889</v>
       </c>
       <c r="H6">
-        <v>3.362399745929378E-05</v>
+        <v>3.177460826677798E-05</v>
       </c>
       <c r="I6">
-        <v>0.1508039976231396</v>
+        <v>0.1486508526869145</v>
       </c>
       <c r="J6">
-        <v>15.69234268474636</v>
+        <v>15.65297737817522</v>
       </c>
       <c r="K6">
-        <v>0.05956484689305617</v>
+        <v>0.06108873383046336</v>
       </c>
       <c r="L6">
-        <v>0.146315180471122</v>
+        <v>0.1511758425252755</v>
       </c>
       <c r="M6">
-        <v>-0.04907673146117784</v>
+        <v>-0.04907182680969564</v>
       </c>
       <c r="N6">
-        <v>6.646685956051646E-07</v>
+        <v>6.540543838751471E-07</v>
       </c>
       <c r="O6">
-        <v>0.005774540605318444</v>
+        <v>0.005613009689248504</v>
       </c>
       <c r="P6">
-        <v>0.004776580384683438</v>
+        <v>0.004645513003485093</v>
       </c>
       <c r="Q6">
-        <v>0.004907980497795512</v>
+        <v>0.004776248403353508</v>
       </c>
       <c r="R6">
-        <v>0.006288120753949239</v>
+        <v>0.006116465824549104</v>
       </c>
       <c r="S6">
-        <v>1.1136661696354E-08</v>
+        <v>1.094005269670633E-08</v>
       </c>
       <c r="T6">
-        <v>8.56086436964451E-06</v>
+        <v>8.385986167345217E-06</v>
       </c>
       <c r="U6">
-        <v>0.05167452954126927</v>
+        <v>0.05016967649099503</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.005772319426993328</v>
+        <v>0.005772319461284649</v>
       </c>
       <c r="B7">
-        <v>2.224921670782304</v>
+        <v>2.224921676574803</v>
       </c>
       <c r="C7">
-        <v>0.06086610446441211</v>
+        <v>0.06086610615651111</v>
       </c>
       <c r="D7">
-        <v>0.08128839351192337</v>
+        <v>0.0812883957876261</v>
       </c>
       <c r="E7">
-        <v>7.538243668832624</v>
+        <v>7.538244035312331</v>
       </c>
       <c r="F7">
-        <v>1.300874181570857</v>
+        <v>1.300874182896307</v>
       </c>
       <c r="G7">
-        <v>0.0006950721198149963</v>
+        <v>0.0006950721240999212</v>
       </c>
       <c r="H7">
-        <v>0.0001565284552829067</v>
+        <v>0.0001565284554258912</v>
       </c>
       <c r="I7">
-        <v>0.06745111143267697</v>
+        <v>0.06745111227342043</v>
       </c>
       <c r="J7">
-        <v>1.659919529354271</v>
+        <v>1.659919568441856</v>
       </c>
       <c r="K7">
-        <v>0.08998677107759283</v>
+        <v>0.08998677110820709</v>
       </c>
       <c r="L7">
-        <v>0.6312150441198595</v>
+        <v>0.6312150434882797</v>
       </c>
       <c r="M7">
-        <v>0.003212259526624272</v>
+        <v>0.003212259575967856</v>
       </c>
       <c r="N7">
-        <v>6.293643546893915E-07</v>
+        <v>6.293643543952103E-07</v>
       </c>
       <c r="O7">
-        <v>0.003389902789704605</v>
+        <v>0.003389902800861864</v>
       </c>
       <c r="P7">
-        <v>0.005516683433302299</v>
+        <v>0.005516683410247954</v>
       </c>
       <c r="Q7">
-        <v>0.006030270365574002</v>
+        <v>0.006030270345329552</v>
       </c>
       <c r="R7">
-        <v>0.04233379398194024</v>
+        <v>0.04233379402212683</v>
       </c>
       <c r="S7">
-        <v>1.443339813272252E-08</v>
+        <v>1.443339815646341E-08</v>
       </c>
       <c r="T7">
-        <v>4.897914712059315E-06</v>
+        <v>4.897914736202783E-06</v>
       </c>
       <c r="U7">
-        <v>0.4957872287665345</v>
+        <v>0.4957872289717751</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.001022410063651707</v>
+        <v>0.001022410068963112</v>
       </c>
       <c r="B8">
-        <v>0.1671249425953577</v>
+        <v>0.1671249430011358</v>
       </c>
       <c r="C8">
-        <v>0.02542561155381822</v>
+        <v>0.02542561171137364</v>
       </c>
       <c r="D8">
-        <v>0.03525272072831435</v>
+        <v>0.03525272094388336</v>
       </c>
       <c r="E8">
-        <v>7.355646459751087</v>
+        <v>7.355646502641995</v>
       </c>
       <c r="F8">
-        <v>0.06922828454737817</v>
+        <v>0.06922828461558775</v>
       </c>
       <c r="G8">
-        <v>5.755860506774024E-05</v>
+        <v>5.755860547748152E-05</v>
       </c>
       <c r="H8">
-        <v>5.097098921521596E-06</v>
+        <v>5.097098936917073E-06</v>
       </c>
       <c r="I8">
-        <v>0.01405179598772805</v>
+        <v>0.01405179606750083</v>
       </c>
       <c r="J8">
-        <v>0.331761340909242</v>
+        <v>0.3317613451659215</v>
       </c>
       <c r="K8">
-        <v>0.002150464182706125</v>
+        <v>0.002150464180050342</v>
       </c>
       <c r="L8">
-        <v>0.00150013662174899</v>
+        <v>0.001500136638616798</v>
       </c>
       <c r="M8">
-        <v>0.006047829521833958</v>
+        <v>0.006047829521366243</v>
       </c>
       <c r="N8">
-        <v>6.89200672663482E-08</v>
+        <v>6.892006736807728E-08</v>
       </c>
       <c r="O8">
-        <v>0.0004143913467644604</v>
+        <v>0.0004143913484004753</v>
       </c>
       <c r="P8">
-        <v>0.0003686160844608188</v>
+        <v>0.0003686160832469996</v>
       </c>
       <c r="Q8">
-        <v>0.0003943382343203058</v>
+        <v>0.0003943382331167213</v>
       </c>
       <c r="R8">
-        <v>0.00189287462672439</v>
+        <v>0.001892874629998673</v>
       </c>
       <c r="S8">
-        <v>8.929309305939206E-10</v>
+        <v>8.92930933746462E-10</v>
       </c>
       <c r="T8">
-        <v>5.423183332831473E-07</v>
+        <v>5.423183359276183E-07</v>
       </c>
       <c r="U8">
-        <v>0.0261508160001776</v>
+        <v>0.02615081599853262</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006959574625435574</v>
+        <v>0.006959576876386873</v>
       </c>
       <c r="B9">
-        <v>0.6155803820276831</v>
+        <v>0.61558059160403</v>
       </c>
       <c r="C9">
-        <v>0.2690750988030605</v>
+        <v>0.269075155137971</v>
       </c>
       <c r="D9">
-        <v>0.3180248934877828</v>
+        <v>0.3180249709917826</v>
       </c>
       <c r="E9">
-        <v>24.63805946051438</v>
+        <v>24.6380753598145</v>
       </c>
       <c r="F9">
-        <v>0.1593620557592074</v>
+        <v>0.1593621042265018</v>
       </c>
       <c r="G9">
-        <v>-0.0002195002719928481</v>
+        <v>-0.0002195001505219277</v>
       </c>
       <c r="H9">
-        <v>0.001596620081891945</v>
+        <v>0.001596620087272689</v>
       </c>
       <c r="I9">
-        <v>0.03259464423596408</v>
+        <v>0.0325946770352455</v>
       </c>
       <c r="J9">
-        <v>1.379421417881845</v>
+        <v>1.379422975018457</v>
       </c>
       <c r="K9">
-        <v>0.0147910390344633</v>
+        <v>0.01479103959012252</v>
       </c>
       <c r="L9">
-        <v>2.123278727287476</v>
+        <v>2.12327876859769</v>
       </c>
       <c r="M9">
-        <v>0.00391559535788018</v>
+        <v>0.003915593959491417</v>
       </c>
       <c r="N9">
-        <v>-2.205771344950573E-06</v>
+        <v>-2.205771272660422E-06</v>
       </c>
       <c r="O9">
-        <v>0.002887217726674122</v>
+        <v>0.002887218509588559</v>
       </c>
       <c r="P9">
-        <v>0.004960198499286118</v>
+        <v>0.004960199357900359</v>
       </c>
       <c r="Q9">
-        <v>0.005064426434426866</v>
+        <v>0.005064427325875983</v>
       </c>
       <c r="R9">
-        <v>0.006986423783827785</v>
+        <v>0.00698642461991216</v>
       </c>
       <c r="S9">
-        <v>2.303650140158188E-08</v>
+        <v>2.303650325739608E-08</v>
       </c>
       <c r="T9">
-        <v>2.826953846389693E-06</v>
+        <v>2.82695499900306E-06</v>
       </c>
       <c r="U9">
-        <v>0.02732441656855179</v>
+        <v>0.02732442841656313</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0003115072767811179</v>
+        <v>-0.0003115072772998795</v>
       </c>
       <c r="B10">
-        <v>-2.091157202973177</v>
+        <v>-2.091157202341492</v>
       </c>
       <c r="C10">
-        <v>-0.1048303069056663</v>
+        <v>-0.104830306900918</v>
       </c>
       <c r="D10">
-        <v>-0.1494219354123545</v>
+        <v>-0.14942193541003</v>
       </c>
       <c r="E10">
-        <v>-5.012678633306131</v>
+        <v>-5.012678646595714</v>
       </c>
       <c r="F10">
-        <v>-0.0191171097887507</v>
+        <v>-0.01911710958751561</v>
       </c>
       <c r="G10">
-        <v>-5.107723892939753E-05</v>
+        <v>-5.107723894539678E-05</v>
       </c>
       <c r="H10">
-        <v>-9.194433378205041E-06</v>
+        <v>-9.194433355429558E-06</v>
       </c>
       <c r="I10">
-        <v>-0.01848902463520795</v>
+        <v>-0.01848902458371892</v>
       </c>
       <c r="J10">
-        <v>-1.445445745009571</v>
+        <v>-1.445445745722761</v>
       </c>
       <c r="K10">
-        <v>0.0013440918820573</v>
+        <v>0.001344091899651724</v>
       </c>
       <c r="L10">
-        <v>-0.00418445693982219</v>
+        <v>-0.004184456852916813</v>
       </c>
       <c r="M10">
-        <v>-0.0002959822312557854</v>
+        <v>-0.0002959822135213909</v>
       </c>
       <c r="N10">
-        <v>-3.08251181607946E-07</v>
+        <v>-3.082511813396954E-07</v>
       </c>
       <c r="O10">
-        <v>-0.0001453288698099504</v>
+        <v>-0.000145328869444375</v>
       </c>
       <c r="P10">
-        <v>-0.0004398889203765712</v>
+        <v>-0.0004398889165392634</v>
       </c>
       <c r="Q10">
-        <v>-0.00044850413365407</v>
+        <v>-0.0004485041293277849</v>
       </c>
       <c r="R10">
-        <v>-0.001904021539363122</v>
+        <v>-0.001904021536673906</v>
       </c>
       <c r="S10">
-        <v>-6.196312521956509E-09</v>
+        <v>-6.196312519126339E-09</v>
       </c>
       <c r="T10">
-        <v>-2.4278395245504E-06</v>
+        <v>-2.427839523715138E-06</v>
       </c>
       <c r="U10">
-        <v>-0.006439202736613508</v>
+        <v>-0.006439202654597707</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>-0.0003027668856407989</v>
+        <v>-0.0003027668845179528</v>
       </c>
       <c r="B11">
-        <v>-2.221943820562041</v>
+        <v>-2.221943818969816</v>
       </c>
       <c r="C11">
-        <v>-0.185063126273686</v>
+        <v>-0.1850631262677376</v>
       </c>
       <c r="D11">
-        <v>-0.254530352760748</v>
+        <v>-0.2545303527508706</v>
       </c>
       <c r="E11">
-        <v>-4.952473569677243</v>
+        <v>-4.952473572147026</v>
       </c>
       <c r="F11">
-        <v>-0.01877483732521159</v>
+        <v>-0.01877483666537847</v>
       </c>
       <c r="G11">
-        <v>-5.135087788376926E-05</v>
+        <v>-5.135087842695527E-05</v>
       </c>
       <c r="H11">
-        <v>-1.18745210247882E-05</v>
+        <v>-1.187452100596196E-05</v>
       </c>
       <c r="I11">
-        <v>-0.04147360757254726</v>
+        <v>-0.04147360738015803</v>
       </c>
       <c r="J11">
-        <v>-2.983676684212474</v>
+        <v>-2.983676684364313</v>
       </c>
       <c r="K11">
-        <v>0.001162910121214138</v>
+        <v>0.001162910173832906</v>
       </c>
       <c r="L11">
-        <v>-0.004256696788461476</v>
+        <v>-0.004256696791344381</v>
       </c>
       <c r="M11">
-        <v>0.000147389789250457</v>
+        <v>0.0001473898155704176</v>
       </c>
       <c r="N11">
-        <v>-4.53778029267464E-07</v>
+        <v>-4.537780288208074E-07</v>
       </c>
       <c r="O11">
-        <v>-0.000134415234043742</v>
+        <v>-0.0001344152341238645</v>
       </c>
       <c r="P11">
-        <v>-0.0004941234660000173</v>
+        <v>-0.0004941234581568337</v>
       </c>
       <c r="Q11">
-        <v>-0.0005021256348866579</v>
+        <v>-0.000502125625565655</v>
       </c>
       <c r="R11">
-        <v>-0.002269543777212304</v>
+        <v>-0.002269543775229596</v>
       </c>
       <c r="S11">
-        <v>-6.634298477064008E-09</v>
+        <v>-6.634298471575215E-09</v>
       </c>
       <c r="T11">
-        <v>-2.970549604877518E-06</v>
+        <v>-2.970549602833289E-06</v>
       </c>
       <c r="U11">
-        <v>-0.006767701450532824</v>
+        <v>-0.006767701145071347</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.157408407385522E-05</v>
+        <v>7.157411786876094E-05</v>
       </c>
       <c r="B12">
-        <v>0.0150599971166793</v>
+        <v>0.01506000298889781</v>
       </c>
       <c r="C12">
-        <v>0.002545510668403916</v>
+        <v>0.002545512070978312</v>
       </c>
       <c r="D12">
-        <v>0.003206821358341197</v>
+        <v>0.003206823167430133</v>
       </c>
       <c r="E12">
-        <v>0.2331783553673426</v>
+        <v>0.2331785417903003</v>
       </c>
       <c r="F12">
-        <v>0.003613910321514824</v>
+        <v>0.0036139112314281</v>
       </c>
       <c r="G12">
-        <v>7.300408751266903E-06</v>
+        <v>7.30041438060891E-06</v>
       </c>
       <c r="H12">
-        <v>6.459161324359108E-07</v>
+        <v>6.459165491293086E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007985159700319049</v>
+        <v>0.0007985163904864629</v>
       </c>
       <c r="J12">
-        <v>0.03287196981116228</v>
+        <v>0.03287199918844206</v>
       </c>
       <c r="K12">
-        <v>0.002913619351197714</v>
+        <v>0.002913619366600882</v>
       </c>
       <c r="L12">
-        <v>0.0184840377525454</v>
+        <v>0.01848404068282112</v>
       </c>
       <c r="M12">
-        <v>7.368236125387524E-06</v>
+        <v>7.368205432358344E-06</v>
       </c>
       <c r="N12">
-        <v>2.321287877350058E-08</v>
+        <v>2.321288087139064E-08</v>
       </c>
       <c r="O12">
-        <v>4.285286707388334E-05</v>
+        <v>4.285288618986931E-05</v>
       </c>
       <c r="P12">
-        <v>8.472445213277982E-05</v>
+        <v>8.47244679944953E-05</v>
       </c>
       <c r="Q12">
-        <v>8.707719896715191E-05</v>
+        <v>8.707721396971203E-05</v>
       </c>
       <c r="R12">
-        <v>0.0001217629869668088</v>
+        <v>0.0001217630397410697</v>
       </c>
       <c r="S12">
-        <v>2.421302439637363E-10</v>
+        <v>2.421303025775901E-10</v>
       </c>
       <c r="T12">
-        <v>5.144874227566791E-08</v>
+        <v>5.144876796690526E-08</v>
       </c>
       <c r="U12">
-        <v>0.001084185338981324</v>
+        <v>0.001084185283758951</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0003736670248874391</v>
+        <v>0.0003736670237178836</v>
       </c>
       <c r="B13">
-        <v>0.03547839140486797</v>
+        <v>0.03547839118791597</v>
       </c>
       <c r="C13">
-        <v>0.01735694915999064</v>
+        <v>0.01735694913153394</v>
       </c>
       <c r="D13">
-        <v>0.02142888676999175</v>
+        <v>0.02142888673485667</v>
       </c>
       <c r="E13">
-        <v>1.087724674049375</v>
+        <v>1.087724678067383</v>
       </c>
       <c r="F13">
-        <v>0.008745847235212524</v>
+        <v>0.008745847184975251</v>
       </c>
       <c r="G13">
-        <v>1.429857812287663E-05</v>
+        <v>1.429857805577576E-05</v>
       </c>
       <c r="H13">
-        <v>1.527606199976676E-06</v>
+        <v>1.527606177027219E-06</v>
       </c>
       <c r="I13">
-        <v>0.005329533782819052</v>
+        <v>0.005329533750190936</v>
       </c>
       <c r="J13">
-        <v>0.1728108983153596</v>
+        <v>0.1728108980935272</v>
       </c>
       <c r="K13">
-        <v>8.878997962951463E-05</v>
+        <v>8.878999005142231E-05</v>
       </c>
       <c r="L13">
-        <v>0.1748642705647538</v>
+        <v>0.1748642708578212</v>
       </c>
       <c r="M13">
-        <v>0.0004609133840020547</v>
+        <v>0.0004609133813363747</v>
       </c>
       <c r="N13">
-        <v>1.678931467406061E-07</v>
+        <v>1.678931467066881E-07</v>
       </c>
       <c r="O13">
-        <v>0.0001317687011226812</v>
+        <v>0.0001317687006080759</v>
       </c>
       <c r="P13">
-        <v>0.0004362982534339567</v>
+        <v>0.0004362982524816923</v>
       </c>
       <c r="Q13">
-        <v>0.0004458788731957913</v>
+        <v>0.0004458788720996926</v>
       </c>
       <c r="R13">
-        <v>0.0003881229400763895</v>
+        <v>0.0003881229383314646</v>
       </c>
       <c r="S13">
-        <v>1.822862673279233E-09</v>
+        <v>1.822862674861291E-09</v>
       </c>
       <c r="T13">
-        <v>1.742287666274203E-07</v>
+        <v>1.742287659387473E-07</v>
       </c>
       <c r="U13">
-        <v>0.002905566002697639</v>
+        <v>0.002905565990204829</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.008446596571867601</v>
+        <v>0.008446595221536277</v>
       </c>
       <c r="B14">
-        <v>0.815228431946409</v>
+        <v>0.8152283275023073</v>
       </c>
       <c r="C14">
-        <v>0.5096466928701617</v>
+        <v>0.5096466601502702</v>
       </c>
       <c r="D14">
-        <v>0.6197106981131373</v>
+        <v>0.6197106529395116</v>
       </c>
       <c r="E14">
-        <v>34.2486050569434</v>
+        <v>34.24859535834125</v>
       </c>
       <c r="F14">
-        <v>0.1986025899082985</v>
+        <v>0.1986025681289135</v>
       </c>
       <c r="G14">
-        <v>0.0004588961563370567</v>
+        <v>0.0004588960850515587</v>
       </c>
       <c r="H14">
-        <v>0.00123567164901963</v>
+        <v>0.00123567164543059</v>
       </c>
       <c r="I14">
-        <v>0.1042438571700578</v>
+        <v>0.1042438380063179</v>
       </c>
       <c r="J14">
-        <v>4.278608224202924</v>
+        <v>4.278607291045818</v>
       </c>
       <c r="K14">
-        <v>0.01762965181746102</v>
+        <v>0.01762964948163636</v>
       </c>
       <c r="L14">
-        <v>2.822853463648839</v>
+        <v>2.822853437857866</v>
       </c>
       <c r="M14">
-        <v>0.002063281860605282</v>
+        <v>0.002063283337489837</v>
       </c>
       <c r="N14">
-        <v>1.929764465109008E-06</v>
+        <v>1.92976442265546E-06</v>
       </c>
       <c r="O14">
-        <v>0.003115942773153135</v>
+        <v>0.003115942325928492</v>
       </c>
       <c r="P14">
-        <v>0.007495162065081321</v>
+        <v>0.007495161728177876</v>
       </c>
       <c r="Q14">
-        <v>0.007669981532969366</v>
+        <v>0.007669981179786007</v>
       </c>
       <c r="R14">
-        <v>0.008047584318355099</v>
+        <v>0.008047583833942228</v>
       </c>
       <c r="S14">
-        <v>3.121155920214266E-08</v>
+        <v>3.121155816303573E-08</v>
       </c>
       <c r="T14">
-        <v>4.062328116744649E-06</v>
+        <v>4.062327461299336E-06</v>
       </c>
       <c r="U14">
-        <v>0.05658618287487552</v>
+        <v>0.05658617903041376</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0003494982772875271</v>
+        <v>0.0003494982775540133</v>
       </c>
       <c r="B15">
-        <v>0.01855843284645929</v>
+        <v>0.01855843283211279</v>
       </c>
       <c r="C15">
-        <v>0.01098912015596749</v>
+        <v>0.01098912015861164</v>
       </c>
       <c r="D15">
-        <v>0.01524433021484075</v>
+        <v>0.01524433021911954</v>
       </c>
       <c r="E15">
-        <v>3.264321951175925</v>
+        <v>3.264321953426819</v>
       </c>
       <c r="F15">
-        <v>0.004552448421580246</v>
+        <v>0.004552448416723472</v>
       </c>
       <c r="G15">
-        <v>1.910487328077685E-05</v>
+        <v>1.910487327836576E-05</v>
       </c>
       <c r="H15">
-        <v>6.950377671923915E-07</v>
+        <v>6.950377660046241E-07</v>
       </c>
       <c r="I15">
-        <v>0.005047138265407886</v>
+        <v>0.005047138262592836</v>
       </c>
       <c r="J15">
-        <v>0.136414059858532</v>
+        <v>0.1364140600290401</v>
       </c>
       <c r="K15">
-        <v>0.0001865478382205968</v>
+        <v>0.0001865478376356653</v>
       </c>
       <c r="L15">
-        <v>0.0008428021889898095</v>
+        <v>0.0008428021956784468</v>
       </c>
       <c r="M15">
-        <v>0.002545299623250796</v>
+        <v>0.002545299620741351</v>
       </c>
       <c r="N15">
-        <v>5.765542953560824E-09</v>
+        <v>5.765542955507828E-09</v>
       </c>
       <c r="O15">
-        <v>0.0001336462471996579</v>
+        <v>0.000133646247234297</v>
       </c>
       <c r="P15">
-        <v>6.607934876349919E-05</v>
+        <v>6.607934871834462E-05</v>
       </c>
       <c r="Q15">
-        <v>6.891290067795417E-05</v>
+        <v>6.891290063113821E-05</v>
       </c>
       <c r="R15">
-        <v>-1.265926826667124E-05</v>
+        <v>-1.265926839364866E-05</v>
       </c>
       <c r="S15">
-        <v>2.017326785537209E-10</v>
+        <v>2.017326786497207E-10</v>
       </c>
       <c r="T15">
-        <v>1.490714929959585E-07</v>
+        <v>1.490714930334773E-07</v>
       </c>
       <c r="U15">
-        <v>0.001563766606136697</v>
+        <v>0.001563766604247116</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>3.708647535825162E-05</v>
+        <v>3.70864756549577E-05</v>
       </c>
       <c r="B16">
-        <v>0.003338416856450487</v>
+        <v>0.003338416852669521</v>
       </c>
       <c r="C16">
-        <v>0.002499280184028452</v>
+        <v>0.002499280189861484</v>
       </c>
       <c r="D16">
-        <v>0.003047335080248404</v>
+        <v>0.003047335088770119</v>
       </c>
       <c r="E16">
-        <v>0.1585704011044015</v>
+        <v>0.1585704041583562</v>
       </c>
       <c r="F16">
-        <v>0.000767095082127805</v>
+        <v>0.0007670950792152127</v>
       </c>
       <c r="G16">
-        <v>1.45862619849801E-06</v>
+        <v>1.458626215211919E-06</v>
       </c>
       <c r="H16">
-        <v>1.286843350845702E-07</v>
+        <v>1.2868433419508E-07</v>
       </c>
       <c r="I16">
-        <v>0.0005170130009465293</v>
+        <v>0.0005170130020783718</v>
       </c>
       <c r="J16">
-        <v>0.01972150811265594</v>
+        <v>0.01972150835766379</v>
       </c>
       <c r="K16">
-        <v>1.60853751329155E-05</v>
+        <v>1.608537413715593E-05</v>
       </c>
       <c r="L16">
-        <v>0.01315159685357525</v>
+        <v>0.01315159688233521</v>
       </c>
       <c r="M16">
-        <v>2.29498591910189E-06</v>
+        <v>2.294984405270567E-06</v>
       </c>
       <c r="N16">
-        <v>1.286921466738367E-08</v>
+        <v>1.286921467898262E-08</v>
       </c>
       <c r="O16">
-        <v>1.293174743124385E-05</v>
+        <v>1.293174752909604E-05</v>
       </c>
       <c r="P16">
-        <v>3.492261043091522E-05</v>
+        <v>3.492261048023666E-05</v>
       </c>
       <c r="Q16">
-        <v>3.572138057138326E-05</v>
+        <v>3.572138059209756E-05</v>
       </c>
       <c r="R16">
-        <v>3.101371745463822E-05</v>
+        <v>3.101371742294035E-05</v>
       </c>
       <c r="S16">
-        <v>1.432707785993119E-10</v>
+        <v>1.432707789605602E-10</v>
       </c>
       <c r="T16">
-        <v>1.754646699124096E-08</v>
+        <v>1.754646710870664E-08</v>
       </c>
       <c r="U16">
-        <v>0.0002378859964499442</v>
+        <v>0.0002378859944525408</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.0002400585028104228</v>
+        <v>0.0002400585035747742</v>
       </c>
       <c r="B17">
-        <v>0.1932148932224869</v>
+        <v>0.1932148931892489</v>
       </c>
       <c r="C17">
-        <v>0.005356596846725797</v>
+        <v>0.005356596840386062</v>
       </c>
       <c r="D17">
-        <v>0.00906275230506659</v>
+        <v>0.009062752295449146</v>
       </c>
       <c r="E17">
-        <v>3.722526479473419</v>
+        <v>3.722526475840912</v>
       </c>
       <c r="F17">
-        <v>0.06151576171335785</v>
+        <v>0.06151576172114918</v>
       </c>
       <c r="G17">
-        <v>1.936117962585941E-05</v>
+        <v>1.936117955660878E-05</v>
       </c>
       <c r="H17">
-        <v>5.24494616745425E-06</v>
+        <v>5.244946172219837E-06</v>
       </c>
       <c r="I17">
-        <v>0.002569847212928882</v>
+        <v>0.00256984720135519</v>
       </c>
       <c r="J17">
-        <v>0.1633231691071419</v>
+        <v>0.1633231688551415</v>
       </c>
       <c r="K17">
-        <v>0.0008394809393083727</v>
+        <v>0.0008394809292198193</v>
       </c>
       <c r="L17">
-        <v>0.007997817489962693</v>
+        <v>0.007997817595417806</v>
       </c>
       <c r="M17">
-        <v>0.0008360682938083957</v>
+        <v>0.0008360683063760767</v>
       </c>
       <c r="N17">
-        <v>8.612594961326586E-08</v>
+        <v>8.612594960955269E-08</v>
       </c>
       <c r="O17">
-        <v>0.000147968896419112</v>
+        <v>0.0001479688965701628</v>
       </c>
       <c r="P17">
-        <v>0.0003069426476480183</v>
+        <v>0.0003069426486150939</v>
       </c>
       <c r="Q17">
-        <v>0.0003484561826039866</v>
+        <v>0.0003484561836098105</v>
       </c>
       <c r="R17">
-        <v>0.0002864910394116838</v>
+        <v>0.0002864910391122962</v>
       </c>
       <c r="S17">
-        <v>7.680304517117852E-10</v>
+        <v>7.680304527533799E-10</v>
       </c>
       <c r="T17">
-        <v>3.190607223669135E-07</v>
+        <v>3.190607223353086E-07</v>
       </c>
       <c r="U17">
-        <v>0.02591120977699839</v>
+        <v>0.02591120978961247</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.003211433216640382</v>
+        <v>0.003211433225265303</v>
       </c>
       <c r="B18">
-        <v>1.192351060796973</v>
+        <v>1.192351070021798</v>
       </c>
       <c r="C18">
-        <v>0.04087487098822238</v>
+        <v>0.04087487225149403</v>
       </c>
       <c r="D18">
-        <v>0.05159469838222211</v>
+        <v>0.05159470001179609</v>
       </c>
       <c r="E18">
-        <v>7.351983596216917</v>
+        <v>7.351983717269351</v>
       </c>
       <c r="F18">
-        <v>0.2589782396364989</v>
+        <v>0.2589782429647365</v>
       </c>
       <c r="G18">
-        <v>0.0005037090568482609</v>
+        <v>0.0005037090577474946</v>
       </c>
       <c r="H18">
-        <v>-0.002462599941909879</v>
+        <v>-0.002462599941722169</v>
       </c>
       <c r="I18">
-        <v>0.02425252714232171</v>
+        <v>0.02425252887505251</v>
       </c>
       <c r="J18">
-        <v>2.397393995972985</v>
+        <v>2.397394008509779</v>
       </c>
       <c r="K18">
-        <v>0.05817103527207869</v>
+        <v>0.05817103550318078</v>
       </c>
       <c r="L18">
-        <v>2.002549866252296</v>
+        <v>2.002549866676607</v>
       </c>
       <c r="M18">
-        <v>0.001342251333892296</v>
+        <v>0.001342251556904913</v>
       </c>
       <c r="N18">
-        <v>3.000385294368066E-07</v>
+        <v>3.000385273101592E-07</v>
       </c>
       <c r="O18">
-        <v>0.002814345982535904</v>
+        <v>0.00281434598171668</v>
       </c>
       <c r="P18">
-        <v>0.004199702799247307</v>
+        <v>0.004199702757519824</v>
       </c>
       <c r="Q18">
-        <v>0.004308237660289904</v>
+        <v>0.004308237623632158</v>
       </c>
       <c r="R18">
-        <v>0.06643524725422482</v>
+        <v>0.06643524728527903</v>
       </c>
       <c r="S18">
-        <v>2.27845560414607E-08</v>
+        <v>2.278455607119951E-08</v>
       </c>
       <c r="T18">
-        <v>3.655687295357765E-06</v>
+        <v>3.655687312036578E-06</v>
       </c>
       <c r="U18">
-        <v>0.08608849638172864</v>
+        <v>0.08608849762039926</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
@@ -14,69 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200 SU' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'eol MUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'eol SUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'marginal heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'scalpel' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'surgery use' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'transport' (ton kilometer, GLO, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1179 +485,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>0.0002646723943036203</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.3694710924157372</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.006936730581982947</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0111649087017079</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.5616594405355794</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1312637871439402</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.346534972436345E-05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.746555447224514E-06</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.002928800280849251</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1231192272977969</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.0003064494543580358</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.06953295440337215</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.0001629272046323423</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-4.086481478619986E-08</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.0001246592656672276</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.000205440364600204</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.0002317327483162657</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.001389757278699906</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5.256565427433755E-10</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4.622301126552696E-07</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.05315441498117995</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>0.0005216302470066619</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.04454178858743574</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.02514855873430091</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.03061539022565133</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.317263923665999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.01121757484075297</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.111781587842124E-05</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.299604577928945E-05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.004701125250241838</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2222486493987793</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.001053918336943368</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1476712969118822</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-5.378265513241545E-05</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.050435467857002E-09</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0001966470765341141</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.000387001397801823</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.000395765262424173</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0004537308602183302</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.650450379312042E-09</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.325379597696775E-07</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.00263087431234035</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>0.006992716156851834</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.903410309906344</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.07038872001346687</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.09440798035776327</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8.341453940427302</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.848787726828756</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0007213160978981694</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.0001023750978154829</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.08131586871138878</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.694323753862053</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1197926434439112</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.125020853732225</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.003473828980793232</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4.730718221576703E-07</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.003900919258575655</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.006715645181341422</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.007422233920589624</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.04519907278821039</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.231828976878E-08</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5.909946386628021E-06</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.7120457882645462</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>1.045268349667739E-05</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.0009338764909956511</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.0003408795383523723</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.001489825328919748</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.05933654358196971</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0002388097092501001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.244443813074147E-07</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.94023055790863E-08</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.878766902605521E-05</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.006597698286115432</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-2.301735609704827E-05</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.80424462990982E-05</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.0002187085847060317</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.640842785711657E-09</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4.348836728397027E-06</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>9.181136506399753E-06</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9.38446413866794E-06</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-1.660040580640854E-06</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7.689420593111054E-12</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>5.405736829334122E-09</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.000131997131595137</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
         <v>0.0172355348041119</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.8423395377495404</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.6379439843841606</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8601191274460525</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>141.2756881313846</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2433081077526297</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001229999333567889</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.177460826677798E-05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1486508526869145</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15.65297737817522</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.06108873383046336</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.1511758425252755</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-0.04907182680969564</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6.540543838751471E-07</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.005613009689248504</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.004645513003485093</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.004776248403353508</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.006116465824549104</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.094005269670633E-08</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8.385986167345217E-06</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.05016967649099503</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
         <v>0.005772319461284649</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.224921676574803</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.06086610615651111</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.0812883957876261</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.538244035312331</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.300874182896307</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.0006950721240999212</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.0001565284554258912</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.06745111227342043</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.659919568441856</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.08998677110820709</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.6312150434882797</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.003212259575967856</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6.293643543952103E-07</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.003389902800861864</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.005516683410247954</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.006030270345329552</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.04233379402212683</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.443339815646341E-08</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4.897914736202783E-06</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.4957872289717751</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>0.001022410068963112</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.1671249430011358</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.02542561171137364</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.03525272094388336</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7.355646502641995</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.06922828461558775</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5.755860547748152E-05</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.097098936917073E-06</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01405179606750083</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.3317613451659215</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.002150464180050342</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.001500136638616798</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.006047829521366243</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6.892006736807728E-08</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.0004143913484004753</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.0003686160832469996</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.0003943382331167213</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.001892874629998673</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>8.92930933746462E-10</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>5.423183359276183E-07</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.02615081599853262</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>0.006959576876386873</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.61558059160403</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.269075155137971</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3180249709917826</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>24.6380753598145</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1593621042265018</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.0002195001505219277</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.001596620087272689</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.0325946770352455</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.379422975018457</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.01479103959012252</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.12327876859769</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.003915593959491417</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-2.205771272660422E-06</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.002887218509588559</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.004960199357900359</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.005064427325875983</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.00698642461991216</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.303650325739608E-08</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2.82695499900306E-06</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.02732442841656313</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
         <v>-0.0003115072772998795</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-2.091157202341492</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.104830306900918</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.14942193541003</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-5.012678646595714</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.01911710958751561</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-5.107723894539678E-05</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-9.194433355429558E-06</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.01848902458371892</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.445445745722761</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.001344091899651724</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.004184456852916813</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.0002959822135213909</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-3.082511813396954E-07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-0.000145328869444375</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.0004398889165392634</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.0004485041293277849</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.001904021536673906</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-6.196312519126339E-09</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-2.427839523715138E-06</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-0.006439202654597707</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
         <v>-0.0003027668845179528</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-2.221943818969816</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.1850631262677376</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.2545303527508706</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-4.952473572147026</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01877483666537847</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-5.135087842695527E-05</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.187452100596196E-05</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.04147360738015803</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-2.983676684364313</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.001162910173832906</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.004256696791344381</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.0001473898155704176</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-4.537780288208074E-07</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-0.0001344152341238645</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.0004941234581568337</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-0.000502125625565655</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-0.002269543775229596</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-6.634298471575215E-09</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2.970549602833289E-06</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-0.006767701145071347</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>7.157411786876094E-05</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.01506000298889781</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.002545512070978312</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.003206823167430133</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.2331785417903003</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0036139112314281</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7.30041438060891E-06</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6.459165491293086E-07</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.0007985163904864629</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.03287199918844206</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.002913619366600882</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.01848404068282112</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>7.368205432358344E-06</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.321288087139064E-08</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4.285288618986931E-05</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>8.47244679944953E-05</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>8.707721396971203E-05</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.0001217630397410697</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.421303025775901E-10</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5.144876796690526E-08</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.001084185283758951</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
         <v>0.0003736670237178836</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.03547839118791597</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.01735694913153394</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.02142888673485667</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.087724678067383</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.008745847184975251</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.429857805577576E-05</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.527606177027219E-06</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.005329533750190936</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.1728108980935272</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>8.878999005142231E-05</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.1748642708578212</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.0004609133813363747</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1.678931467066881E-07</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.0001317687006080759</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.0004362982524816923</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.0004458788720996926</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.0003881229383314646</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.822862674861291E-09</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.742287659387473E-07</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.002905565990204829</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
         <v>0.008446595221536277</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.8152283275023073</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.5096466601502702</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.6197106529395116</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>34.24859535834125</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.1986025681289135</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.0004588960850515587</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.00123567164543059</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1042438380063179</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.278607291045818</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.01762964948163636</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2.822853437857866</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.002063283337489837</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.92976442265546E-06</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.003115942325928492</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.007495161728177876</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.007669981179786007</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.008047583833942228</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3.121155816303573E-08</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4.062327461299336E-06</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.05658617903041376</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>0.0003494982775540133</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.01855843283211279</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.01098912015861164</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.01524433021911954</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3.264321953426819</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.004552448416723472</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.910487327836576E-05</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6.950377660046241E-07</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.005047138262592836</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1364140600290401</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.0001865478376356653</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.0008428021956784468</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.002545299620741351</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5.765542955507828E-09</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.000133646247234297</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6.607934871834462E-05</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.891290063113821E-05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-1.265926839364866E-05</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.017326786497207E-10</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.490714930334773E-07</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.001563766604247116</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
         <v>3.70864756549577E-05</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.003338416852669521</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.002499280189861484</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.003047335088770119</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.1585704041583562</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0007670950792152127</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.458626215211919E-06</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.2868433419508E-07</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.0005170130020783718</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.01972150835766379</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.608537413715593E-05</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.01315159688233521</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.294984405270567E-06</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.286921467898262E-08</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.293174752909604E-05</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.492261048023666E-05</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.572138059209756E-05</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.101371742294035E-05</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.432707789605602E-10</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.754646710870664E-08</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.0002378859944525408</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>0.0002400585035747742</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.1932148931892489</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.005356596840386062</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.009062752295449146</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.722526475840912</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.06151576172114918</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.936117955660878E-05</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.244946172219837E-06</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.00256984720135519</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.1633231688551415</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.0008394809292198193</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.007997817595417806</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.0008360683063760767</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>8.612594960955269E-08</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.0001479688965701628</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.0003069426486150939</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.0003484561836098105</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.0002864910391122962</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>7.680304527533799E-10</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3.190607223353086E-07</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.02591120978961247</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
         <v>0.003211433225265303</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1.192351070021798</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.04087487225149403</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.05159470001179609</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7.351983717269351</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2589782429647365</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.0005037090577474946</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.002462599941722169</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.02425252887505251</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.397394008509779</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.05817103550318078</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.002549866676607</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.001342251556904913</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3.000385273101592E-07</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.00281434598171668</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.004199702757519824</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.004308237623632158</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.06643524728527903</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.278455607119951E-08</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3.655687312036578E-06</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.08608849762039926</v>
       </c>
     </row>

--- a/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_uniquie_case2_consq_recipe.xlsx
@@ -561,67 +561,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0002646723943036203</v>
+        <v>0.0002646724077039722</v>
       </c>
       <c r="C2">
-        <v>0.3694710924157372</v>
+        <v>0.3694710912252835</v>
       </c>
       <c r="D2">
-        <v>0.006936730581982947</v>
+        <v>0.006936730689068236</v>
       </c>
       <c r="E2">
-        <v>0.0111649087017079</v>
+        <v>0.01116490888630347</v>
       </c>
       <c r="F2">
-        <v>0.5616594405355794</v>
+        <v>0.5616595630937276</v>
       </c>
       <c r="G2">
-        <v>0.1312637871439402</v>
+        <v>0.1312637867209085</v>
       </c>
       <c r="H2">
-        <v>1.346534972436345E-05</v>
+        <v>1.346534935608705E-05</v>
       </c>
       <c r="I2">
-        <v>2.746555447224514E-06</v>
+        <v>2.746555383521082E-06</v>
       </c>
       <c r="J2">
-        <v>0.002928800280849251</v>
+        <v>0.002928800179067953</v>
       </c>
       <c r="K2">
-        <v>0.1231192272977969</v>
+        <v>0.1231192349831383</v>
       </c>
       <c r="L2">
-        <v>0.0003064494543580358</v>
+        <v>0.0003064494391978203</v>
       </c>
       <c r="M2">
-        <v>-0.06953295440337215</v>
+        <v>-0.06953295400269541</v>
       </c>
       <c r="N2">
-        <v>0.0001629272046323423</v>
+        <v>0.0001629270835388751</v>
       </c>
       <c r="O2">
-        <v>-4.086481478619986E-08</v>
+        <v>-4.086481464700846E-08</v>
       </c>
       <c r="P2">
-        <v>0.0001246592656672276</v>
+        <v>0.0001246592673982453</v>
       </c>
       <c r="Q2">
-        <v>0.000205440364600204</v>
+        <v>0.000205440363542919</v>
       </c>
       <c r="R2">
-        <v>0.0002317327483162657</v>
+        <v>0.0002317327468305889</v>
       </c>
       <c r="S2">
-        <v>0.001389757278699906</v>
+        <v>0.001389757273102013</v>
       </c>
       <c r="T2">
-        <v>5.256565427433755E-10</v>
+        <v>5.256565468613407E-10</v>
       </c>
       <c r="U2">
-        <v>4.622301126552696E-07</v>
+        <v>4.622301140320582E-07</v>
       </c>
       <c r="V2">
-        <v>0.05315441498117995</v>
+        <v>0.05315441482597146</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -629,67 +629,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.0005216302470066619</v>
+        <v>0.0005216302178853473</v>
       </c>
       <c r="C3">
-        <v>0.04454178858743574</v>
+        <v>0.04454178598411835</v>
       </c>
       <c r="D3">
-        <v>0.02514855873430091</v>
+        <v>0.02514855809426233</v>
       </c>
       <c r="E3">
-        <v>0.03061539022565133</v>
+        <v>0.03061538934706172</v>
       </c>
       <c r="F3">
-        <v>2.317263923665999</v>
+        <v>2.317263754003841</v>
       </c>
       <c r="G3">
-        <v>0.01121757484075297</v>
+        <v>0.01121757410726379</v>
       </c>
       <c r="H3">
-        <v>1.111781587842124E-05</v>
+        <v>1.111781458595525E-05</v>
       </c>
       <c r="I3">
-        <v>8.299604577928945E-05</v>
+        <v>8.299604572129694E-05</v>
       </c>
       <c r="J3">
-        <v>0.004701125250241838</v>
+        <v>0.004701124921509345</v>
       </c>
       <c r="K3">
-        <v>0.2222486493987793</v>
+        <v>0.2222486329213418</v>
       </c>
       <c r="L3">
-        <v>0.001053918336943368</v>
+        <v>0.001053918395716281</v>
       </c>
       <c r="M3">
-        <v>0.1476712969118822</v>
+        <v>0.147671296700052</v>
       </c>
       <c r="N3">
-        <v>-5.378265513241545E-05</v>
+        <v>-5.378265796172384E-05</v>
       </c>
       <c r="O3">
-        <v>1.050435467857002E-09</v>
+        <v>1.050434774965198E-09</v>
       </c>
       <c r="P3">
-        <v>0.0001966470765341141</v>
+        <v>0.0001966470661391516</v>
       </c>
       <c r="Q3">
-        <v>0.000387001397801823</v>
+        <v>0.000387001381950418</v>
       </c>
       <c r="R3">
-        <v>0.000395765262424173</v>
+        <v>0.0003957652458078526</v>
       </c>
       <c r="S3">
-        <v>0.0004537308602183302</v>
+        <v>0.0004537308530540712</v>
       </c>
       <c r="T3">
-        <v>1.650450379312042E-09</v>
+        <v>1.650450358487022E-09</v>
       </c>
       <c r="U3">
-        <v>2.325379597696775E-07</v>
+        <v>2.32537945948209E-07</v>
       </c>
       <c r="V3">
-        <v>0.00263087431234035</v>
+        <v>0.002630874086629962</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -697,67 +697,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.006992716156851834</v>
+        <v>0.006992716245792478</v>
       </c>
       <c r="C4">
-        <v>2.903410309906344</v>
+        <v>2.903410314177749</v>
       </c>
       <c r="D4">
-        <v>0.07038872001346687</v>
+        <v>0.07038871760103424</v>
       </c>
       <c r="E4">
-        <v>0.09440798035776327</v>
+        <v>0.0944079772739953</v>
       </c>
       <c r="F4">
-        <v>8.341453940427302</v>
+        <v>8.341453819468715</v>
       </c>
       <c r="G4">
-        <v>1.848787726828756</v>
+        <v>1.848787728150545</v>
       </c>
       <c r="H4">
-        <v>0.0007213160978981694</v>
+        <v>0.0007213160938092056</v>
       </c>
       <c r="I4">
-        <v>0.0001023750978154829</v>
+        <v>0.0001023750979406312</v>
       </c>
       <c r="J4">
-        <v>0.08131586871138878</v>
+        <v>0.08131586679343525</v>
       </c>
       <c r="K4">
-        <v>1.694323753862053</v>
+        <v>1.694323728602089</v>
       </c>
       <c r="L4">
-        <v>0.1197926434439112</v>
+        <v>0.1197926435750369</v>
       </c>
       <c r="M4">
-        <v>0.125020853732225</v>
+        <v>0.1250208574700375</v>
       </c>
       <c r="N4">
-        <v>0.003473828980793232</v>
+        <v>0.003473828546557766</v>
       </c>
       <c r="O4">
-        <v>4.730718221576703E-07</v>
+        <v>4.730718369142176E-07</v>
       </c>
       <c r="P4">
-        <v>0.003900919258575655</v>
+        <v>0.003900919315697388</v>
       </c>
       <c r="Q4">
-        <v>0.006715645181341422</v>
+        <v>0.006715645453182298</v>
       </c>
       <c r="R4">
-        <v>0.007422233920589624</v>
+        <v>0.007422234189306949</v>
       </c>
       <c r="S4">
-        <v>0.04519907278821039</v>
+        <v>0.04519907273682826</v>
       </c>
       <c r="T4">
-        <v>1.231828976878E-08</v>
+        <v>1.231828986131409E-08</v>
       </c>
       <c r="U4">
-        <v>5.909946386628021E-06</v>
+        <v>5.90994641454238E-06</v>
       </c>
       <c r="V4">
-        <v>0.7120457882645462</v>
+        <v>0.7120457893197124</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +765,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>1.045268349667739E-05</v>
+        <v>4.9743844701732E-06</v>
       </c>
       <c r="C5">
-        <v>0.0009338764909956511</v>
+        <v>0.0008808656344149565</v>
       </c>
       <c r="D5">
-        <v>0.0003408795383523723</v>
+        <v>0.0001773544667444446</v>
       </c>
       <c r="E5">
-        <v>0.001489825328919748</v>
+        <v>0.001261347408823984</v>
       </c>
       <c r="F5">
-        <v>0.05933654358196971</v>
+        <v>0.005609440003780075</v>
       </c>
       <c r="G5">
-        <v>0.0002388097092501001</v>
+        <v>0.0002326559962445362</v>
       </c>
       <c r="H5">
-        <v>2.244443813074147E-07</v>
+        <v>8.540604352153529E-08</v>
       </c>
       <c r="I5">
-        <v>2.94023055790863E-08</v>
+        <v>3.029168933876264E-08</v>
       </c>
       <c r="J5">
-        <v>8.878766902605521E-05</v>
+        <v>0.0001600139671075227</v>
       </c>
       <c r="K5">
-        <v>0.006597698286115432</v>
+        <v>0.004880110409384141</v>
       </c>
       <c r="L5">
-        <v>-2.301735609704827E-05</v>
+        <v>-3.029014171177474E-05</v>
       </c>
       <c r="M5">
-        <v>4.80424462990982E-05</v>
+        <v>5.715679748167357E-05</v>
       </c>
       <c r="N5">
-        <v>0.0002187085847060317</v>
+        <v>0.0001886544142873208</v>
       </c>
       <c r="O5">
-        <v>2.640842785711657E-09</v>
+        <v>2.604943851296673E-09</v>
       </c>
       <c r="P5">
-        <v>4.348836728397027E-06</v>
+        <v>2.893241395146133E-06</v>
       </c>
       <c r="Q5">
-        <v>9.181136506399753E-06</v>
+        <v>8.670297058054145E-06</v>
       </c>
       <c r="R5">
-        <v>9.38446413866794E-06</v>
+        <v>8.869001404134788E-06</v>
       </c>
       <c r="S5">
-        <v>-1.660040580640854E-06</v>
+        <v>3.276361016497016E-07</v>
       </c>
       <c r="T5">
-        <v>7.689420593111054E-12</v>
+        <v>5.549688318979379E-12</v>
       </c>
       <c r="U5">
-        <v>5.405736829334122E-09</v>
+        <v>4.291447129700928E-09</v>
       </c>
       <c r="V5">
-        <v>0.000131997131595137</v>
+        <v>0.0001241650362080017</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +833,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.0172355348041119</v>
+        <v>0.01723553482377382</v>
       </c>
       <c r="C6">
-        <v>0.8423395377495404</v>
+        <v>0.8423395418169911</v>
       </c>
       <c r="D6">
-        <v>0.6379439843841606</v>
+        <v>0.6379439847632044</v>
       </c>
       <c r="E6">
-        <v>0.8601191274460525</v>
+        <v>0.86011912794663</v>
       </c>
       <c r="F6">
-        <v>141.2756881313846</v>
+        <v>141.2756881911623</v>
       </c>
       <c r="G6">
-        <v>0.2433081077526297</v>
+        <v>0.243308108829099</v>
       </c>
       <c r="H6">
-        <v>0.001229999333567889</v>
+        <v>0.001229999335031476</v>
       </c>
       <c r="I6">
-        <v>3.177460826677798E-05</v>
+        <v>3.177460841620722E-05</v>
       </c>
       <c r="J6">
-        <v>0.1486508526869145</v>
+        <v>0.1486508528287636</v>
       </c>
       <c r="K6">
-        <v>15.65297737817522</v>
+        <v>15.6529773867226</v>
       </c>
       <c r="L6">
-        <v>0.06108873383046336</v>
+        <v>0.06108873392340893</v>
       </c>
       <c r="M6">
-        <v>0.1511758425252755</v>
+        <v>0.1511758435662256</v>
       </c>
       <c r="N6">
-        <v>-0.04907182680969564</v>
+        <v>-0.04907182677852071</v>
       </c>
       <c r="O6">
-        <v>6.540543838751471E-07</v>
+        <v>6.540543865104784E-07</v>
       </c>
       <c r="P6">
-        <v>0.005613009689248504</v>
+        <v>0.005613009701514854</v>
       </c>
       <c r="Q6">
-        <v>0.004645513003485093</v>
+        <v>0.004645513045906044</v>
       </c>
       <c r="R6">
-        <v>0.004776248403353508</v>
+        <v>0.004776248446193858</v>
       </c>
       <c r="S6">
-        <v>0.006116465824549104</v>
+        <v>0.006116465840492111</v>
       </c>
       <c r="T6">
-        <v>1.094005269670633E-08</v>
+        <v>1.094005272900746E-08</v>
       </c>
       <c r="U6">
-        <v>8.385986167345217E-06</v>
+        <v>8.385986181330261E-06</v>
       </c>
       <c r="V6">
-        <v>0.05016967649099503</v>
+        <v>0.05016967685194183</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +901,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.005772319461284649</v>
+        <v>0.005772319437364408</v>
       </c>
       <c r="C7">
-        <v>2.224921676574803</v>
+        <v>2.224921662312854</v>
       </c>
       <c r="D7">
-        <v>0.06086610615651111</v>
+        <v>0.06086610315523899</v>
       </c>
       <c r="E7">
-        <v>0.0812883957876261</v>
+        <v>0.08128839180760636</v>
       </c>
       <c r="F7">
-        <v>7.538244035312331</v>
+        <v>7.538243583579435</v>
       </c>
       <c r="G7">
-        <v>1.300874182896307</v>
+        <v>1.300874178747657</v>
       </c>
       <c r="H7">
-        <v>0.0006950721240999212</v>
+        <v>0.0006950721183112073</v>
       </c>
       <c r="I7">
-        <v>0.0001565284554258912</v>
+        <v>0.0001565284552063721</v>
       </c>
       <c r="J7">
-        <v>0.06745111227342043</v>
+        <v>0.0674511083137091</v>
       </c>
       <c r="K7">
-        <v>1.659919568441856</v>
+        <v>1.659919517877771</v>
       </c>
       <c r="L7">
-        <v>0.08998677110820709</v>
+        <v>0.08998677121625649</v>
       </c>
       <c r="M7">
-        <v>0.6312150434882797</v>
+        <v>0.6312150359551475</v>
       </c>
       <c r="N7">
-        <v>0.003212259575967856</v>
+        <v>0.003212258994752692</v>
       </c>
       <c r="O7">
-        <v>6.293643543952103E-07</v>
+        <v>6.293643549628018E-07</v>
       </c>
       <c r="P7">
-        <v>0.003389902800861864</v>
+        <v>0.003389902790484913</v>
       </c>
       <c r="Q7">
-        <v>0.005516683410247954</v>
+        <v>0.005516683437171465</v>
       </c>
       <c r="R7">
-        <v>0.006030270345329552</v>
+        <v>0.006030270365433177</v>
       </c>
       <c r="S7">
-        <v>0.04233379402212683</v>
+        <v>0.04233379395271816</v>
       </c>
       <c r="T7">
-        <v>1.443339815646341E-08</v>
+        <v>1.443339803563493E-08</v>
       </c>
       <c r="U7">
-        <v>4.897914736202783E-06</v>
+        <v>4.897914691654847E-06</v>
       </c>
       <c r="V7">
-        <v>0.4957872289717751</v>
+        <v>0.4957872276238503</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +969,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.001022410068963112</v>
+        <v>0.001022410065176756</v>
       </c>
       <c r="C8">
-        <v>0.1671249430011358</v>
+        <v>0.1671249425549109</v>
       </c>
       <c r="D8">
-        <v>0.02542561171137364</v>
+        <v>0.02542561157454648</v>
       </c>
       <c r="E8">
-        <v>0.03525272094388336</v>
+        <v>0.0352527207612813</v>
       </c>
       <c r="F8">
-        <v>7.355646502641995</v>
+        <v>7.355646477067299</v>
       </c>
       <c r="G8">
-        <v>0.06922828461558775</v>
+        <v>0.0692282845095837</v>
       </c>
       <c r="H8">
-        <v>5.755860547748152E-05</v>
+        <v>5.755860517449239E-05</v>
       </c>
       <c r="I8">
-        <v>5.097098936917073E-06</v>
+        <v>5.097098923786354E-06</v>
       </c>
       <c r="J8">
-        <v>0.01405179606750083</v>
+        <v>0.01405179596672969</v>
       </c>
       <c r="K8">
-        <v>0.3317613451659215</v>
+        <v>0.3317613424423152</v>
       </c>
       <c r="L8">
-        <v>0.002150464180050342</v>
+        <v>0.002150464185737549</v>
       </c>
       <c r="M8">
-        <v>0.001500136638616798</v>
+        <v>0.001500136561658416</v>
       </c>
       <c r="N8">
-        <v>0.006047829521366243</v>
+        <v>0.006047829506071503</v>
       </c>
       <c r="O8">
-        <v>6.892006736807728E-08</v>
+        <v>6.892006736104498E-08</v>
       </c>
       <c r="P8">
-        <v>0.0004143913484004753</v>
+        <v>0.0004143913470820474</v>
       </c>
       <c r="Q8">
-        <v>0.0003686160832469996</v>
+        <v>0.0003686160837045155</v>
       </c>
       <c r="R8">
-        <v>0.0003943382331167213</v>
+        <v>0.0003943382334139141</v>
       </c>
       <c r="S8">
-        <v>0.001892874629998673</v>
+        <v>0.001892874629122063</v>
       </c>
       <c r="T8">
-        <v>8.92930933746462E-10</v>
+        <v>8.929309304402166E-10</v>
       </c>
       <c r="U8">
-        <v>5.423183359276183E-07</v>
+        <v>5.423183337290055E-07</v>
       </c>
       <c r="V8">
-        <v>0.02615081599853262</v>
+        <v>0.0261508159721844</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1037,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006959576876386873</v>
+        <v>0.006959574556664917</v>
       </c>
       <c r="C9">
-        <v>0.61558059160403</v>
+        <v>0.615580386234265</v>
       </c>
       <c r="D9">
-        <v>0.269075155137971</v>
+        <v>0.2690750984523765</v>
       </c>
       <c r="E9">
-        <v>0.3180249709917826</v>
+        <v>0.3180248928954008</v>
       </c>
       <c r="F9">
-        <v>24.6380753598145</v>
+        <v>24.63805912716195</v>
       </c>
       <c r="G9">
-        <v>0.1593621042265018</v>
+        <v>0.1593620567405404</v>
       </c>
       <c r="H9">
-        <v>-0.0002195001505219277</v>
+        <v>-0.0002195002680178673</v>
       </c>
       <c r="I9">
-        <v>0.001596620087272689</v>
+        <v>0.001596620081953467</v>
       </c>
       <c r="J9">
-        <v>0.0325946770352455</v>
+        <v>0.03259464597566698</v>
       </c>
       <c r="K9">
-        <v>1.379422975018457</v>
+        <v>1.379421400135439</v>
       </c>
       <c r="L9">
-        <v>0.01479103959012252</v>
+        <v>0.01479103898799965</v>
       </c>
       <c r="M9">
-        <v>2.12327876859769</v>
+        <v>2.123278729548896</v>
       </c>
       <c r="N9">
-        <v>0.003915593959491417</v>
+        <v>0.003915595850037473</v>
       </c>
       <c r="O9">
-        <v>-2.205771272660422E-06</v>
+        <v>-2.205771343256686E-06</v>
       </c>
       <c r="P9">
-        <v>0.002887218509588559</v>
+        <v>0.002887217718893897</v>
       </c>
       <c r="Q9">
-        <v>0.004960199357900359</v>
+        <v>0.004960198515057131</v>
       </c>
       <c r="R9">
-        <v>0.005064427325875983</v>
+        <v>0.005064426447673735</v>
       </c>
       <c r="S9">
-        <v>0.00698642461991216</v>
+        <v>0.006986423764288263</v>
       </c>
       <c r="T9">
-        <v>2.303650325739608E-08</v>
+        <v>2.303650141911409E-08</v>
       </c>
       <c r="U9">
-        <v>2.82695499900306E-06</v>
+        <v>2.826953847145133E-06</v>
       </c>
       <c r="V9">
-        <v>0.02732442841656313</v>
+        <v>0.0273244168508297</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1105,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.0003115072772998795</v>
+        <v>-0.0003115072770229362</v>
       </c>
       <c r="C10">
-        <v>-2.091157202341492</v>
+        <v>-2.091157202204683</v>
       </c>
       <c r="D10">
-        <v>-0.104830306900918</v>
+        <v>-0.1048303069075641</v>
       </c>
       <c r="E10">
-        <v>-0.14942193541003</v>
+        <v>-0.1494219354156298</v>
       </c>
       <c r="F10">
-        <v>-5.012678646595714</v>
+        <v>-5.012678640266289</v>
       </c>
       <c r="G10">
-        <v>-0.01911710958751561</v>
+        <v>-0.01911710950705514</v>
       </c>
       <c r="H10">
-        <v>-5.107723894539678E-05</v>
+        <v>-5.107723899401561E-05</v>
       </c>
       <c r="I10">
-        <v>-9.194433355429558E-06</v>
+        <v>-9.194433368150917E-06</v>
       </c>
       <c r="J10">
-        <v>-0.01848902458371892</v>
+        <v>-0.01848902443423188</v>
       </c>
       <c r="K10">
-        <v>-1.445445745722761</v>
+        <v>-1.445445745451778</v>
       </c>
       <c r="L10">
-        <v>0.001344091899651724</v>
+        <v>0.001344091882917748</v>
       </c>
       <c r="M10">
-        <v>-0.004184456852916813</v>
+        <v>-0.00418445678360414</v>
       </c>
       <c r="N10">
-        <v>-0.0002959822135213909</v>
+        <v>-0.0002959821873852565</v>
       </c>
       <c r="O10">
-        <v>-3.082511813396954E-07</v>
+        <v>-3.082511815389093E-07</v>
       </c>
       <c r="P10">
-        <v>-0.000145328869444375</v>
+        <v>-0.0001453288694593989</v>
       </c>
       <c r="Q10">
-        <v>-0.0004398889165392634</v>
+        <v>-0.0004398889174547107</v>
       </c>
       <c r="R10">
-        <v>-0.0004485041293277849</v>
+        <v>-0.000448504130061715</v>
       </c>
       <c r="S10">
-        <v>-0.001904021536673906</v>
+        <v>-0.001904021539452554</v>
       </c>
       <c r="T10">
-        <v>-6.196312519126339E-09</v>
+        <v>-6.196312518129172E-09</v>
       </c>
       <c r="U10">
-        <v>-2.427839523715138E-06</v>
+        <v>-2.427839523047057E-06</v>
       </c>
       <c r="V10">
-        <v>-0.006439202654597707</v>
+        <v>-0.006439202608806744</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1173,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0003027668845179528</v>
+        <v>-0.0003027668840461123</v>
       </c>
       <c r="C11">
-        <v>-2.221943818969816</v>
+        <v>-2.221943818338564</v>
       </c>
       <c r="D11">
-        <v>-0.1850631262677376</v>
+        <v>-0.18506312618235</v>
       </c>
       <c r="E11">
-        <v>-0.2545303527508706</v>
+        <v>-0.2545303526305274</v>
       </c>
       <c r="F11">
-        <v>-4.952473572147026</v>
+        <v>-4.952473546793125</v>
       </c>
       <c r="G11">
-        <v>-0.01877483666537847</v>
+        <v>-0.01877483649065232</v>
       </c>
       <c r="H11">
-        <v>-5.135087842695527E-05</v>
+        <v>-5.13508781674229E-05</v>
       </c>
       <c r="I11">
-        <v>-1.187452100596196E-05</v>
+        <v>-1.187452101124871E-05</v>
       </c>
       <c r="J11">
-        <v>-0.04147360738015803</v>
+        <v>-0.04147360715518571</v>
       </c>
       <c r="K11">
-        <v>-2.983676684364313</v>
+        <v>-2.98367668185829</v>
       </c>
       <c r="L11">
-        <v>0.001162910173832906</v>
+        <v>0.00116291016493213</v>
       </c>
       <c r="M11">
-        <v>-0.004256696791344381</v>
+        <v>-0.004256696814396207</v>
       </c>
       <c r="N11">
-        <v>0.0001473898155704176</v>
+        <v>0.00014738984845543</v>
       </c>
       <c r="O11">
-        <v>-4.537780288208074E-07</v>
+        <v>-4.537780289445199E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0001344152341238645</v>
+        <v>-0.0001344152338522677</v>
       </c>
       <c r="Q11">
-        <v>-0.0004941234581568337</v>
+        <v>-0.0004941234598481469</v>
       </c>
       <c r="R11">
-        <v>-0.000502125625565655</v>
+        <v>-0.0005021256270255495</v>
       </c>
       <c r="S11">
-        <v>-0.002269543775229596</v>
+        <v>-0.002269543774132109</v>
       </c>
       <c r="T11">
-        <v>-6.634298471575215E-09</v>
+        <v>-6.634298469564748E-09</v>
       </c>
       <c r="U11">
-        <v>-2.970549602833289E-06</v>
+        <v>-2.970549600758136E-06</v>
       </c>
       <c r="V11">
-        <v>-0.006767701145071347</v>
+        <v>-0.006767701084266381</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1241,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>7.157411786876094E-05</v>
+        <v>7.15741320442449E-05</v>
       </c>
       <c r="C12">
-        <v>0.01506000298889781</v>
+        <v>0.01506000618419754</v>
       </c>
       <c r="D12">
-        <v>0.002545512070978312</v>
+        <v>0.002545512353600473</v>
       </c>
       <c r="E12">
-        <v>0.003206823167430133</v>
+        <v>0.003206823532345166</v>
       </c>
       <c r="F12">
-        <v>0.2331785417903003</v>
+        <v>0.2331785590016437</v>
       </c>
       <c r="G12">
-        <v>0.0036139112314281</v>
+        <v>0.00361391204227524</v>
       </c>
       <c r="H12">
-        <v>7.30041438060891E-06</v>
+        <v>7.300415126401623E-06</v>
       </c>
       <c r="I12">
-        <v>6.459165491293086E-07</v>
+        <v>6.459166697512575E-07</v>
       </c>
       <c r="J12">
-        <v>0.0007985163904864629</v>
+        <v>0.0007985166370336005</v>
       </c>
       <c r="K12">
-        <v>0.03287199918844206</v>
+        <v>0.03287200337890781</v>
       </c>
       <c r="L12">
-        <v>0.002913619366600882</v>
+        <v>0.002913619369854653</v>
       </c>
       <c r="M12">
-        <v>0.01848404068282112</v>
+        <v>0.01848404180298666</v>
       </c>
       <c r="N12">
-        <v>7.368205432358344E-06</v>
+        <v>7.368293755246303E-06</v>
       </c>
       <c r="O12">
-        <v>2.321288087139064E-08</v>
+        <v>2.321288210245929E-08</v>
       </c>
       <c r="P12">
-        <v>4.285288618986931E-05</v>
+        <v>4.285289363773153E-05</v>
       </c>
       <c r="Q12">
-        <v>8.47244679944953E-05</v>
+        <v>8.472448872724843E-05</v>
       </c>
       <c r="R12">
-        <v>8.707721396971203E-05</v>
+        <v>8.707723539414946E-05</v>
       </c>
       <c r="S12">
-        <v>0.0001217630397410697</v>
+        <v>0.0001217630517870515</v>
       </c>
       <c r="T12">
-        <v>2.421303025775901E-10</v>
+        <v>2.42130328168551E-10</v>
       </c>
       <c r="U12">
-        <v>5.144876796690526E-08</v>
+        <v>5.14487774355251E-08</v>
       </c>
       <c r="V12">
-        <v>0.001084185283758951</v>
+        <v>0.001084185576037983</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1309,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.0003736670237178836</v>
+        <v>0.0003736670193388722</v>
       </c>
       <c r="C13">
-        <v>0.03547839118791597</v>
+        <v>0.03547839182231013</v>
       </c>
       <c r="D13">
-        <v>0.01735694913153394</v>
+        <v>0.0173569492360634</v>
       </c>
       <c r="E13">
-        <v>0.02142888673485667</v>
+        <v>0.02142888687321368</v>
       </c>
       <c r="F13">
-        <v>1.087724678067383</v>
+        <v>1.087724682581451</v>
       </c>
       <c r="G13">
-        <v>0.008745847184975251</v>
+        <v>0.008745847320994996</v>
       </c>
       <c r="H13">
-        <v>1.429857805577576E-05</v>
+        <v>1.42985784764101E-05</v>
       </c>
       <c r="I13">
-        <v>1.527606177027219E-06</v>
+        <v>1.527606199876405E-06</v>
       </c>
       <c r="J13">
-        <v>0.005329533750190936</v>
+        <v>0.005329533891272904</v>
       </c>
       <c r="K13">
-        <v>0.1728108980935272</v>
+        <v>0.1728109005976739</v>
       </c>
       <c r="L13">
-        <v>8.878999005142231E-05</v>
+        <v>8.87900242946632E-05</v>
       </c>
       <c r="M13">
-        <v>0.1748642708578212</v>
+        <v>0.1748642709994499</v>
       </c>
       <c r="N13">
-        <v>0.0004609133813363747</v>
+        <v>0.0004609134108008218</v>
       </c>
       <c r="O13">
-        <v>1.678931467066881E-07</v>
+        <v>1.678931469358036E-07</v>
       </c>
       <c r="P13">
-        <v>0.0001317687006080759</v>
+        <v>0.0001317686998122853</v>
       </c>
       <c r="Q13">
-        <v>0.0004362982524816923</v>
+        <v>0.0004362982519299346</v>
       </c>
       <c r="R13">
-        <v>0.0004458788720996926</v>
+        <v>0.0004458788714283021</v>
       </c>
       <c r="S13">
-        <v>0.0003881229383314646</v>
+        <v>0.0003881229461607508</v>
       </c>
       <c r="T13">
-        <v>1.822862674861291E-09</v>
+        <v>1.822862677300477E-09</v>
       </c>
       <c r="U13">
-        <v>1.742287659387473E-07</v>
+        <v>1.742287670864074E-07</v>
       </c>
       <c r="V13">
-        <v>0.002905565990204829</v>
+        <v>0.002905566019686062</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1377,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.008446595221536277</v>
+        <v>0.008446596438703439</v>
       </c>
       <c r="C14">
-        <v>0.8152283275023073</v>
+        <v>0.8152284165045159</v>
       </c>
       <c r="D14">
-        <v>0.5096466601502702</v>
+        <v>0.509646689864234</v>
       </c>
       <c r="E14">
-        <v>0.6197106529395116</v>
+        <v>0.6197106939349276</v>
       </c>
       <c r="F14">
-        <v>34.24859535834125</v>
+        <v>34.24860436696328</v>
       </c>
       <c r="G14">
-        <v>0.1986025681289135</v>
+        <v>0.1986025856443318</v>
       </c>
       <c r="H14">
-        <v>0.0004588960850515587</v>
+        <v>0.0004588961482380355</v>
       </c>
       <c r="I14">
-        <v>0.00123567164543059</v>
+        <v>0.001235671648427948</v>
       </c>
       <c r="J14">
-        <v>0.1042438380063179</v>
+        <v>0.1042438552215556</v>
       </c>
       <c r="K14">
-        <v>4.278607291045818</v>
+        <v>4.278608155695686</v>
       </c>
       <c r="L14">
-        <v>0.01762964948163636</v>
+        <v>0.01762965225204823</v>
       </c>
       <c r="M14">
-        <v>2.822853437857866</v>
+        <v>2.822853461997469</v>
       </c>
       <c r="N14">
-        <v>0.002063283337489837</v>
+        <v>0.002063281533805404</v>
       </c>
       <c r="O14">
-        <v>1.92976442265546E-06</v>
+        <v>1.929764463520811E-06</v>
       </c>
       <c r="P14">
-        <v>0.003115942325928492</v>
+        <v>0.003115942722824713</v>
       </c>
       <c r="Q14">
-        <v>0.007495161728177876</v>
+        <v>0.007495162035103005</v>
       </c>
       <c r="R14">
-        <v>0.007669981179786007</v>
+        <v>0.007669981493876491</v>
       </c>
       <c r="S14">
-        <v>0.008047583833942228</v>
+        <v>0.008047584148744718</v>
       </c>
       <c r="T14">
-        <v>3.121155816303573E-08</v>
+        <v>3.121155909514389E-08</v>
       </c>
       <c r="U14">
-        <v>4.062327461299336E-06</v>
+        <v>4.062328048330978E-06</v>
       </c>
       <c r="V14">
-        <v>0.05658617903041376</v>
+        <v>0.05658618178713121</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1445,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.0003494982775540133</v>
+        <v>6.882498105409029E-05</v>
       </c>
       <c r="C15">
-        <v>0.01855843283211279</v>
+        <v>0.01584249284537435</v>
       </c>
       <c r="D15">
-        <v>0.01098912015861164</v>
+        <v>0.002611132643237284</v>
       </c>
       <c r="E15">
-        <v>0.01524433021911954</v>
+        <v>0.003538570707895135</v>
       </c>
       <c r="F15">
-        <v>3.264321953426819</v>
+        <v>0.5116859261686164</v>
       </c>
       <c r="G15">
-        <v>0.004552448416723472</v>
+        <v>0.004237171212277895</v>
       </c>
       <c r="H15">
-        <v>1.910487327836576E-05</v>
+        <v>1.198143075024289E-05</v>
       </c>
       <c r="I15">
-        <v>6.950377660046241E-07</v>
+        <v>7.406041521652816E-07</v>
       </c>
       <c r="J15">
-        <v>0.005047138262592836</v>
+        <v>0.008696322052697643</v>
       </c>
       <c r="K15">
-        <v>0.1364140600290401</v>
+        <v>0.04841575099440842</v>
       </c>
       <c r="L15">
-        <v>0.0001865478376356653</v>
+        <v>-0.000186063567767365</v>
       </c>
       <c r="M15">
-        <v>0.0008428021956784468</v>
+        <v>0.001309763737740073</v>
       </c>
       <c r="N15">
-        <v>0.002545299620741351</v>
+        <v>0.001005514549940887</v>
       </c>
       <c r="O15">
-        <v>5.765542955507828E-09</v>
+        <v>3.926309246927566E-09</v>
       </c>
       <c r="P15">
-        <v>0.000133646247234297</v>
+        <v>5.907077444121439E-05</v>
       </c>
       <c r="Q15">
-        <v>6.607934871834462E-05</v>
+        <v>3.990717511041279E-05</v>
       </c>
       <c r="R15">
-        <v>6.891290063113821E-05</v>
+        <v>4.250385917277129E-05</v>
       </c>
       <c r="S15">
-        <v>-1.265926839364866E-05</v>
+        <v>8.9176678559666E-05</v>
       </c>
       <c r="T15">
-        <v>2.017326786497207E-10</v>
+        <v>9.210636821016855E-11</v>
       </c>
       <c r="U15">
-        <v>1.490714930334773E-07</v>
+        <v>9.19823563554168E-08</v>
       </c>
       <c r="V15">
-        <v>0.001563766604247116</v>
+        <v>0.001162499715099924</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1513,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>3.70864756549577E-05</v>
+        <v>3.708647548879161E-05</v>
       </c>
       <c r="C16">
-        <v>0.003338416852669521</v>
+        <v>0.00333841692755643</v>
       </c>
       <c r="D16">
-        <v>0.002499280189861484</v>
+        <v>0.002499280193148566</v>
       </c>
       <c r="E16">
-        <v>0.003047335088770119</v>
+        <v>0.003047335091672905</v>
       </c>
       <c r="F16">
-        <v>0.1585704041583562</v>
+        <v>0.15857040061372</v>
       </c>
       <c r="G16">
-        <v>0.0007670950792152127</v>
+        <v>0.0007670950943523099</v>
       </c>
       <c r="H16">
-        <v>1.458626215211919E-06</v>
+        <v>1.458626279268284E-06</v>
       </c>
       <c r="I16">
-        <v>1.2868433419508E-07</v>
+        <v>1.286843375001774E-07</v>
       </c>
       <c r="J16">
-        <v>0.0005170130020783718</v>
+        <v>0.0005170129972247156</v>
       </c>
       <c r="K16">
-        <v>0.01972150835766379</v>
+        <v>0.01972150823174414</v>
       </c>
       <c r="L16">
-        <v>1.608537413715593E-05</v>
+        <v>1.608537441291882E-05</v>
       </c>
       <c r="M16">
-        <v>0.01315159688233521</v>
+        <v>0.01315159691848217</v>
       </c>
       <c r="N16">
-        <v>2.294984405270567E-06</v>
+        <v>2.294990432290861E-06</v>
       </c>
       <c r="O16">
-        <v>1.286921467898262E-08</v>
+        <v>1.286921469012965E-08</v>
       </c>
       <c r="P16">
-        <v>1.293174752909604E-05</v>
+        <v>1.293174758556902E-05</v>
       </c>
       <c r="Q16">
-        <v>3.492261048023666E-05</v>
+        <v>3.492261073006593E-05</v>
       </c>
       <c r="R16">
-        <v>3.572138059209756E-05</v>
+        <v>3.57213808474867E-05</v>
       </c>
       <c r="S16">
-        <v>3.101371742294035E-05</v>
+        <v>3.101371776551778E-05</v>
       </c>
       <c r="T16">
-        <v>1.432707789605602E-10</v>
+        <v>1.432707794938278E-10</v>
       </c>
       <c r="U16">
-        <v>1.754646710870664E-08</v>
+        <v>1.754646717009882E-08</v>
       </c>
       <c r="V16">
-        <v>0.0002378859944525408</v>
+        <v>0.0002378859968128369</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,67 +1581,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002400585035747742</v>
+        <v>0.0002400585050777193</v>
       </c>
       <c r="C17">
-        <v>0.1932148931892489</v>
+        <v>0.1932148934607318</v>
       </c>
       <c r="D17">
-        <v>0.005356596840386062</v>
+        <v>0.005356596916561802</v>
       </c>
       <c r="E17">
-        <v>0.009062752295449146</v>
+        <v>0.00906275239304845</v>
       </c>
       <c r="F17">
-        <v>3.722526475840912</v>
+        <v>3.72252648839038</v>
       </c>
       <c r="G17">
-        <v>0.06151576172114918</v>
+        <v>0.06151576172896858</v>
       </c>
       <c r="H17">
-        <v>1.936117955660878E-05</v>
+        <v>1.936117995113876E-05</v>
       </c>
       <c r="I17">
-        <v>5.244946172219837E-06</v>
+        <v>5.244946191236047E-06</v>
       </c>
       <c r="J17">
-        <v>0.00256984720135519</v>
+        <v>0.002569847231190797</v>
       </c>
       <c r="K17">
-        <v>0.1633231688551415</v>
+        <v>0.1633231703767166</v>
       </c>
       <c r="L17">
-        <v>0.0008394809292198193</v>
+        <v>0.0008394809483645568</v>
       </c>
       <c r="M17">
-        <v>0.007997817595417806</v>
+        <v>0.007997817547116084</v>
       </c>
       <c r="N17">
-        <v>0.0008360683063760767</v>
+        <v>0.0008360682983436065</v>
       </c>
       <c r="O17">
-        <v>8.612594960955269E-08</v>
+        <v>8.612594979490418E-08</v>
       </c>
       <c r="P17">
-        <v>0.0001479688965701628</v>
+        <v>0.0001479688975446334</v>
       </c>
       <c r="Q17">
-        <v>0.0003069426486150939</v>
+        <v>0.0003069426492494068</v>
       </c>
       <c r="R17">
-        <v>0.0003484561836098105</v>
+        <v>0.0003484561841468183</v>
       </c>
       <c r="S17">
-        <v>0.0002864910391122962</v>
+        <v>0.0002864910386484845</v>
       </c>
       <c r="T17">
-        <v>7.680304527533799E-10</v>
+        <v>7.680304539426155E-10</v>
       </c>
       <c r="U17">
-        <v>3.190607223353086E-07</v>
+        <v>3.190607236454056E-07</v>
       </c>
       <c r="V17">
-        <v>0.02591120978961247</v>
+        <v>0.02591120976209788</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1649,67 +1649,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>0.003211433225265303</v>
+        <v>0.003211433234093261</v>
       </c>
       <c r="C18">
-        <v>1.192351070021798</v>
+        <v>1.192351063079512</v>
       </c>
       <c r="D18">
-        <v>0.04087487225149403</v>
+        <v>0.0408748707508829</v>
       </c>
       <c r="E18">
-        <v>0.05159470001179609</v>
+        <v>0.05159469809181318</v>
       </c>
       <c r="F18">
-        <v>7.351983717269351</v>
+        <v>7.351983666471881</v>
       </c>
       <c r="G18">
-        <v>0.2589782429647365</v>
+        <v>0.2589782414455952</v>
       </c>
       <c r="H18">
-        <v>0.0005037090577474946</v>
+        <v>0.0005037090501749484</v>
       </c>
       <c r="I18">
-        <v>-0.002462599941722169</v>
+        <v>-0.00246259994224926</v>
       </c>
       <c r="J18">
-        <v>0.02425252887505251</v>
+        <v>0.02425252743355693</v>
       </c>
       <c r="K18">
-        <v>2.397394008509779</v>
+        <v>2.39739398709011</v>
       </c>
       <c r="L18">
-        <v>0.05817103550318078</v>
+        <v>0.05817103552380815</v>
       </c>
       <c r="M18">
-        <v>2.002549866676607</v>
+        <v>2.00254987326935</v>
       </c>
       <c r="N18">
-        <v>0.001342251556904913</v>
+        <v>0.00134225090946745</v>
       </c>
       <c r="O18">
-        <v>3.000385273101592E-07</v>
+        <v>3.000385299255707E-07</v>
       </c>
       <c r="P18">
-        <v>0.00281434598171668</v>
+        <v>0.002814345983023043</v>
       </c>
       <c r="Q18">
-        <v>0.004199702757519824</v>
+        <v>0.004199702847009809</v>
       </c>
       <c r="R18">
-        <v>0.004308237623632158</v>
+        <v>0.00430823771212418</v>
       </c>
       <c r="S18">
-        <v>0.06643524728527903</v>
+        <v>0.06643524719915693</v>
       </c>
       <c r="T18">
-        <v>2.278455607119951E-08</v>
+        <v>2.27845561166733E-08</v>
       </c>
       <c r="U18">
-        <v>3.655687312036578E-06</v>
+        <v>3.655687296641581E-06</v>
       </c>
       <c r="V18">
-        <v>0.08608849762039926</v>
+        <v>0.08608849756789741</v>
       </c>
     </row>
   </sheetData>
